--- a/Data/phytoplankton/2021/DFW_Phyto_Samples_2021_all.xlsx
+++ b/Data/phytoplankton/2021/DFW_Phyto_Samples_2021_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AQUATICS\AQUATIC ARCHIVE\DATA ARCHIVES\CDWR - ALL PROJECTS\CDWR YOLO\PHYTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\SMSCG\Data\phytoplankton\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7CCB422-8339-46FB-8E62-D0869B5DAF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ECD0BC-11AA-42FC-9C52-86D521284F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="3915" windowWidth="14310" windowHeight="11385" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17640" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Info" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="322">
   <si>
     <t>Cyclotella sp.</t>
   </si>
@@ -980,9 +980,6 @@
     <t>BSA.YOLO-66</t>
   </si>
   <si>
-    <t>10/7/211</t>
-  </si>
-  <si>
     <t>BSA.YOLO-67</t>
   </si>
   <si>
@@ -1289,15 +1286,7 @@
     <cellStyle name="Normal_Sheet1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal_Tulsa - species list" xfId="4" xr:uid="{DC1583C4-8A8C-4FAB-8787-02496ED9652E}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1652,8 +1641,8 @@
   <dimension ref="A1:BO888"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B865" sqref="B865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15848,7 +15837,7 @@
         <v>102</v>
       </c>
       <c r="AC183" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD183" s="8" t="s">
         <v>100</v>
@@ -16000,7 +15989,7 @@
         <v>102</v>
       </c>
       <c r="AC186" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD186" s="8" t="s">
         <v>44</v>
@@ -16128,7 +16117,7 @@
         <v>102</v>
       </c>
       <c r="AC188" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD188" s="8" t="s">
         <v>149</v>
@@ -16255,7 +16244,7 @@
         <v>102</v>
       </c>
       <c r="AC190" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD190" s="8" t="s">
         <v>50</v>
@@ -16347,7 +16336,7 @@
         <v>102</v>
       </c>
       <c r="AC191" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD191" s="8" t="s">
         <v>44</v>
@@ -16476,7 +16465,7 @@
         <v>102</v>
       </c>
       <c r="AC193" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD193" s="8" t="s">
         <v>50</v>
@@ -16586,7 +16575,7 @@
         <v>102</v>
       </c>
       <c r="AC194" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD194" s="8" t="s">
         <v>50</v>
@@ -16776,7 +16765,7 @@
         <v>102</v>
       </c>
       <c r="AC195" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD195" s="8" t="s">
         <v>50</v>
@@ -16880,7 +16869,7 @@
         <v>102</v>
       </c>
       <c r="AC196" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD196" s="8" t="s">
         <v>44</v>
@@ -41602,7 +41591,7 @@
         <v>102</v>
       </c>
       <c r="AC539" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD539" s="8" t="s">
         <v>44</v>
@@ -41724,7 +41713,7 @@
         <v>102</v>
       </c>
       <c r="AC541" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD541" s="8" t="s">
         <v>175</v>
@@ -41906,7 +41895,7 @@
         <v>102</v>
       </c>
       <c r="AC545" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD545" s="8" t="s">
         <v>101</v>
@@ -42041,7 +42030,7 @@
         <v>102</v>
       </c>
       <c r="AC547" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD547" s="8" t="s">
         <v>50</v>
@@ -62497,7 +62486,7 @@
         <v>102</v>
       </c>
       <c r="AC839" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD839" s="8" t="s">
         <v>175</v>
@@ -62679,7 +62668,7 @@
         <v>102</v>
       </c>
       <c r="AC843" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD843" s="8" t="s">
         <v>50</v>
@@ -62842,7 +62831,7 @@
         <v>102</v>
       </c>
       <c r="AC846" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD846" s="8" t="s">
         <v>50</v>
@@ -62937,7 +62926,7 @@
         <v>102</v>
       </c>
       <c r="AC847" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD847" s="8" t="s">
         <v>117</v>
@@ -63060,7 +63049,7 @@
         <v>102</v>
       </c>
       <c r="AC849" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD849" s="8" t="s">
         <v>101</v>
@@ -63183,7 +63172,7 @@
         <v>102</v>
       </c>
       <c r="AC851" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD851" s="8" t="s">
         <v>117</v>
@@ -63306,7 +63295,7 @@
         <v>102</v>
       </c>
       <c r="AC853" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD853" s="8" t="s">
         <v>101</v>
@@ -63441,7 +63430,7 @@
         <v>102</v>
       </c>
       <c r="AC855" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD855" s="8" t="s">
         <v>50</v>
@@ -63631,7 +63620,7 @@
         <v>102</v>
       </c>
       <c r="AC856" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD856" s="8" t="s">
         <v>203</v>
@@ -63716,8 +63705,8 @@
       <c r="A859" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B859" s="36" t="s">
-        <v>316</v>
+      <c r="B859" s="36">
+        <v>44476</v>
       </c>
       <c r="C859" s="37">
         <v>0.46875</v>
@@ -63779,7 +63768,7 @@
         <v>5</v>
       </c>
       <c r="AA859" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB859" s="7" t="s">
         <v>102</v>
@@ -63868,8 +63857,8 @@
       <c r="A862" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B862" s="36" t="s">
-        <v>316</v>
+      <c r="B862" s="36">
+        <v>44476</v>
       </c>
       <c r="C862" s="37">
         <v>0.46875</v>
@@ -63931,7 +63920,7 @@
         <v>5</v>
       </c>
       <c r="AA862" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB862" s="7" t="s">
         <v>102</v>
@@ -63990,8 +63979,8 @@
       <c r="A864" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B864" s="36" t="s">
-        <v>316</v>
+      <c r="B864" s="36">
+        <v>44476</v>
       </c>
       <c r="C864" s="37">
         <v>0.46875</v>
@@ -64053,7 +64042,7 @@
         <v>5</v>
       </c>
       <c r="AA864" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB864" s="7" t="s">
         <v>102</v>
@@ -64112,8 +64101,8 @@
       <c r="A866" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B866" s="36" t="s">
-        <v>316</v>
+      <c r="B866" s="36">
+        <v>44476</v>
       </c>
       <c r="C866" s="37">
         <v>0.46875</v>
@@ -64181,7 +64170,7 @@
         <v>56</v>
       </c>
       <c r="AA866" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB866" s="7" t="s">
         <v>102</v>
@@ -64371,7 +64360,7 @@
         <v>5</v>
       </c>
       <c r="AA867" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB867" s="7" t="s">
         <v>102</v>
@@ -64493,7 +64482,7 @@
         <v>5</v>
       </c>
       <c r="AA869" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB869" s="7" t="s">
         <v>102</v>
@@ -64621,7 +64610,7 @@
         <v>5</v>
       </c>
       <c r="AA871" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB871" s="7" t="s">
         <v>102</v>
@@ -64725,7 +64714,7 @@
         <v>56</v>
       </c>
       <c r="AA872" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB872" s="7" t="s">
         <v>102</v>
@@ -64915,7 +64904,7 @@
         <v>5</v>
       </c>
       <c r="AA873" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB873" s="7" t="s">
         <v>91</v>
@@ -65049,7 +65038,7 @@
         <v>5</v>
       </c>
       <c r="AA875" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB875" s="7" t="s">
         <v>91</v>
@@ -65201,7 +65190,7 @@
         <v>5</v>
       </c>
       <c r="AA878" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB878" s="7" t="s">
         <v>91</v>
@@ -65380,7 +65369,7 @@
         <v>5</v>
       </c>
       <c r="AA881" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB881" s="7" t="s">
         <v>91</v>
@@ -65532,7 +65521,7 @@
         <v>5</v>
       </c>
       <c r="AA884" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB884" s="7" t="s">
         <v>91</v>
@@ -65660,7 +65649,7 @@
         <v>5</v>
       </c>
       <c r="AA886" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB886" s="7" t="s">
         <v>91</v>
@@ -65801,7 +65790,7 @@
         <v>56</v>
       </c>
       <c r="AA888" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB888" s="7" t="s">
         <v>91</v>
@@ -65926,7 +65915,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BO11">
-    <sortCondition sortBy="cellColor" ref="P2:P11" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="P2:P11" dxfId="0"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/phytoplankton/2021/DFW_Phyto_Samples_2021_all.xlsx
+++ b/Data/phytoplankton/2021/DFW_Phyto_Samples_2021_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\SMSCG\Data\phytoplankton\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ECD0BC-11AA-42FC-9C52-86D521284F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57DD235-06B8-4800-97ED-D7BCF3A2E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17640" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Info" sheetId="3" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1278,6 +1278,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -1641,53 +1642,53 @@
   <dimension ref="A1:BO888"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B865" sqref="B865"/>
+      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" style="7" customWidth="1"/>
     <col min="16" max="16" width="38" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="28.5703125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="19" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="19" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="5" customWidth="1"/>
-    <col min="23" max="25" width="10.42578125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="39.85546875" style="23" customWidth="1"/>
-    <col min="30" max="30" width="34.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10.7109375" style="24" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="23" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" style="10" customWidth="1"/>
-    <col min="35" max="39" width="10.7109375" style="7" customWidth="1"/>
-    <col min="40" max="40" width="10.85546875" style="7" customWidth="1"/>
-    <col min="41" max="41" width="12.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="28.54296875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="19" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" style="19" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="5" customWidth="1"/>
+    <col min="23" max="25" width="10.453125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="16.54296875" style="19" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1796875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="39.81640625" style="23" customWidth="1"/>
+    <col min="30" max="30" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.7265625" style="24" customWidth="1"/>
+    <col min="33" max="33" width="10.7265625" style="23" customWidth="1"/>
+    <col min="34" max="34" width="10.7265625" style="10" customWidth="1"/>
+    <col min="35" max="39" width="10.7265625" style="7" customWidth="1"/>
+    <col min="40" max="40" width="10.81640625" style="7" customWidth="1"/>
+    <col min="41" max="41" width="12.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.7265625" style="32" bestFit="1" customWidth="1"/>
     <col min="43" max="51" width="15" style="32" bestFit="1" customWidth="1"/>
     <col min="52" max="67" width="16" style="32" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="7"/>
+    <col min="68" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
@@ -2014,7 +2015,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
@@ -2138,7 +2139,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
@@ -2169,7 +2170,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
@@ -2200,7 +2201,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="36"/>
       <c r="C9" s="37"/>
@@ -2348,7 +2349,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="36"/>
       <c r="C10" s="37"/>
@@ -2391,7 +2392,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
@@ -2732,7 +2733,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
@@ -2853,7 +2854,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
@@ -2884,7 +2885,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="36"/>
       <c r="C18" s="37"/>
@@ -3010,7 +3011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="36"/>
       <c r="C19" s="37"/>
@@ -3043,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="36"/>
       <c r="C21" s="37"/>
@@ -3164,7 +3165,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>7</v>
       </c>
@@ -3479,7 +3480,7 @@
       <c r="BN23" s="54"/>
       <c r="BO23" s="54"/>
     </row>
-    <row r="24" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -3546,7 +3547,7 @@
       <c r="BN24" s="54"/>
       <c r="BO24" s="54"/>
     </row>
-    <row r="25" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>7</v>
       </c>
@@ -3667,7 +3668,7 @@
       <c r="BN25" s="54"/>
       <c r="BO25" s="54"/>
     </row>
-    <row r="26" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="BN26" s="54"/>
       <c r="BO26" s="54"/>
     </row>
-    <row r="27" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3855,7 +3856,7 @@
       <c r="BN27" s="54"/>
       <c r="BO27" s="54"/>
     </row>
-    <row r="28" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>7</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
@@ -4172,7 +4173,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -4202,7 +4203,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="36"/>
       <c r="C33" s="37"/>
@@ -4334,7 +4335,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="36"/>
       <c r="C35" s="37"/>
@@ -4454,7 +4455,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="36"/>
       <c r="C36" s="37"/>
@@ -4484,7 +4485,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
@@ -4628,7 +4629,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="39" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="36"/>
       <c r="C39" s="37"/>
@@ -4670,7 +4671,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="41" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
@@ -4802,7 +4803,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="42" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
@@ -4941,7 +4942,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
@@ -5068,7 +5069,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="46" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
@@ -5384,7 +5385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
@@ -5414,7 +5415,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>7</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="36"/>
       <c r="C51" s="37"/>
@@ -5536,7 +5537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>7</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>7</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>7</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="36"/>
       <c r="C55" s="37"/>
@@ -5950,7 +5951,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>7</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="36"/>
       <c r="C57" s="37"/>
@@ -6072,7 +6073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="36"/>
       <c r="C58" s="37"/>
@@ -6102,7 +6103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>7</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="36"/>
       <c r="C60" s="37"/>
@@ -6224,7 +6225,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="36"/>
       <c r="C61" s="37"/>
@@ -6254,7 +6255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
@@ -6377,7 +6378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="36"/>
       <c r="C64" s="37"/>
@@ -6408,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>7</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="67" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="36"/>
       <c r="C67" s="37"/>
@@ -6623,7 +6624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>7</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="36"/>
       <c r="C69" s="37"/>
@@ -6746,7 +6747,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>7</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>7</v>
       </c>
@@ -7063,7 +7064,7 @@
       <c r="BN71" s="54"/>
       <c r="BO71" s="54"/>
     </row>
-    <row r="72" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -7129,7 +7130,7 @@
       <c r="BN72" s="54"/>
       <c r="BO72" s="54"/>
     </row>
-    <row r="73" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
@@ -7195,7 +7196,7 @@
       <c r="BN73" s="54"/>
       <c r="BO73" s="54"/>
     </row>
-    <row r="74" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>7</v>
       </c>
@@ -7316,7 +7317,7 @@
       <c r="BN74" s="54"/>
       <c r="BO74" s="54"/>
     </row>
-    <row r="75" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>7</v>
       </c>
@@ -7441,7 +7442,7 @@
       <c r="BN75" s="54"/>
       <c r="BO75" s="54"/>
     </row>
-    <row r="76" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="41"/>
       <c r="C76" s="42"/>
@@ -7512,7 +7513,7 @@
       <c r="BN76" s="54"/>
       <c r="BO76" s="54"/>
     </row>
-    <row r="77" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>7</v>
       </c>
@@ -7641,7 +7642,7 @@
       <c r="BN77" s="54"/>
       <c r="BO77" s="54"/>
     </row>
-    <row r="78" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="41"/>
       <c r="C78" s="42"/>
@@ -7716,7 +7717,7 @@
       <c r="BN78" s="54"/>
       <c r="BO78" s="54"/>
     </row>
-    <row r="79" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>7</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="36"/>
       <c r="C81" s="37"/>
@@ -8035,7 +8036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>7</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="36"/>
       <c r="C83" s="37"/>
@@ -8156,7 +8157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>7</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="36"/>
       <c r="C85" s="37"/>
@@ -8279,7 +8280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="36"/>
       <c r="C86" s="37"/>
@@ -8310,7 +8311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>7</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
@@ -8433,7 +8434,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="89" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>7</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="36"/>
       <c r="C90" s="37"/>
@@ -8568,7 +8569,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="91" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>7</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="92" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>7</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="93" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="36"/>
       <c r="C93" s="37"/>
@@ -8887,7 +8888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>7</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="36"/>
       <c r="C95" s="37"/>
@@ -9010,7 +9011,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="36"/>
       <c r="C96" s="37"/>
@@ -9041,7 +9042,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>7</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
@@ -9161,7 +9162,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="99" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="36"/>
       <c r="C99" s="37"/>
@@ -9191,7 +9192,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="100" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>7</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="101" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="36"/>
       <c r="C101" s="37"/>
@@ -9311,7 +9312,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="102" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="36"/>
       <c r="C102" s="37"/>
@@ -9341,7 +9342,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="103" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>7</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="104" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="36"/>
       <c r="C104" s="37"/>
@@ -9479,7 +9480,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="105" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>7</v>
       </c>
@@ -9572,7 +9573,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="106" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="36"/>
       <c r="C106" s="37"/>
@@ -9605,7 +9606,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="107" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="36"/>
       <c r="C107" s="37"/>
@@ -9638,7 +9639,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="108" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>7</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="109" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="36"/>
       <c r="C109" s="37"/>
@@ -9758,7 +9759,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="110" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>7</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>7</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="36"/>
       <c r="C112" s="37"/>
@@ -10084,7 +10085,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>7</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="114" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="36"/>
       <c r="C114" s="37"/>
@@ -10203,7 +10204,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="115" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="36"/>
       <c r="C115" s="37"/>
@@ -10232,7 +10233,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="116" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>7</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="117" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="36"/>
       <c r="C117" s="37"/>
@@ -10377,7 +10378,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="118" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>7</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="119" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>7</v>
       </c>
@@ -10692,7 +10693,7 @@
       <c r="BN119" s="54"/>
       <c r="BO119" s="54"/>
     </row>
-    <row r="120" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
       <c r="B120" s="41"/>
       <c r="C120" s="42"/>
@@ -10758,7 +10759,7 @@
       <c r="BN120" s="54"/>
       <c r="BO120" s="54"/>
     </row>
-    <row r="121" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
         <v>7</v>
       </c>
@@ -10879,7 +10880,7 @@
       <c r="BN121" s="54"/>
       <c r="BO121" s="54"/>
     </row>
-    <row r="122" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="41"/>
       <c r="C122" s="42"/>
@@ -10946,7 +10947,7 @@
       <c r="BN122" s="54"/>
       <c r="BO122" s="54"/>
     </row>
-    <row r="123" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
         <v>7</v>
       </c>
@@ -11073,7 +11074,7 @@
       <c r="BN123" s="54"/>
       <c r="BO123" s="54"/>
     </row>
-    <row r="124" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
       <c r="B124" s="41"/>
       <c r="C124" s="42"/>
@@ -11146,7 +11147,7 @@
       <c r="BN124" s="54"/>
       <c r="BO124" s="54"/>
     </row>
-    <row r="125" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
         <v>7</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="126" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
         <v>7</v>
       </c>
@@ -11464,7 +11465,7 @@
       <c r="BN126" s="54"/>
       <c r="BO126" s="54"/>
     </row>
-    <row r="127" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
       <c r="B127" s="41"/>
       <c r="C127" s="42"/>
@@ -11530,7 +11531,7 @@
       <c r="BN127" s="54"/>
       <c r="BO127" s="54"/>
     </row>
-    <row r="128" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
       <c r="B128" s="41"/>
       <c r="C128" s="42"/>
@@ -11596,7 +11597,7 @@
       <c r="BN128" s="54"/>
       <c r="BO128" s="54"/>
     </row>
-    <row r="129" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>7</v>
       </c>
@@ -11719,7 +11720,7 @@
       <c r="BN129" s="54"/>
       <c r="BO129" s="54"/>
     </row>
-    <row r="130" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A130" s="19"/>
       <c r="B130" s="41"/>
       <c r="C130" s="42"/>
@@ -11788,7 +11789,7 @@
       <c r="BN130" s="54"/>
       <c r="BO130" s="54"/>
     </row>
-    <row r="131" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>7</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="132" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>7</v>
       </c>
@@ -12077,7 +12078,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="36"/>
       <c r="C133" s="37"/>
@@ -12106,7 +12107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>7</v>
       </c>
@@ -12204,7 +12205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="36"/>
       <c r="C135" s="37"/>
@@ -12241,7 +12242,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="136" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>7</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="137" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="36"/>
       <c r="C137" s="37"/>
@@ -12376,7 +12377,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="138" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>7</v>
       </c>
@@ -12572,7 +12573,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="139" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>7</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="36"/>
       <c r="C140" s="37"/>
@@ -12695,7 +12696,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="141" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="36"/>
       <c r="C141" s="37"/>
@@ -12726,7 +12727,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="142" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>7</v>
       </c>
@@ -12818,7 +12819,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="36"/>
       <c r="C143" s="37"/>
@@ -12848,7 +12849,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="144" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>7</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="36"/>
       <c r="C145" s="37"/>
@@ -12976,7 +12977,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="146" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="36"/>
       <c r="C146" s="37"/>
@@ -13009,7 +13010,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="147" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>7</v>
       </c>
@@ -13101,7 +13102,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="36"/>
       <c r="C148" s="37"/>
@@ -13131,7 +13132,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="149" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="36"/>
       <c r="C149" s="37"/>
@@ -13161,7 +13162,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="150" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>7</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="151" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="36"/>
       <c r="C151" s="37"/>
@@ -13295,7 +13296,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="152" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="36"/>
       <c r="C152" s="37"/>
@@ -13331,7 +13332,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="153" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>7</v>
       </c>
@@ -13527,7 +13528,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="154" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>7</v>
       </c>
@@ -13617,7 +13618,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="36"/>
       <c r="C155" s="37"/>
@@ -13647,7 +13648,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="156" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="36"/>
       <c r="C156" s="37"/>
@@ -13677,7 +13678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>7</v>
       </c>
@@ -13767,7 +13768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="36"/>
       <c r="C158" s="37"/>
@@ -13797,7 +13798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="36"/>
       <c r="C159" s="37"/>
@@ -13827,7 +13828,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="160" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="B160" s="36"/>
       <c r="C160" s="37"/>
@@ -13857,7 +13858,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="161" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>7</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>7</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="36"/>
       <c r="C163" s="37"/>
@@ -14098,7 +14099,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="164" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>7</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="36"/>
       <c r="C165" s="37"/>
@@ -14231,7 +14232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>7</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="167" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>7</v>
       </c>
@@ -14527,7 +14528,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="168" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="36"/>
       <c r="C168" s="37"/>
@@ -14569,7 +14570,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="169" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>7</v>
       </c>
@@ -14662,7 +14663,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="170" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="36"/>
       <c r="C170" s="37"/>
@@ -14695,7 +14696,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="171" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>7</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="172" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="36"/>
       <c r="C172" s="37"/>
@@ -14840,7 +14841,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="173" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>7</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="174" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>7</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="36"/>
       <c r="C175" s="37"/>
@@ -15179,7 +15180,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="176" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>7</v>
       </c>
@@ -15275,7 +15276,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="177" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="36"/>
       <c r="C177" s="37"/>
@@ -15311,7 +15312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>7</v>
       </c>
@@ -15410,7 +15411,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="179" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="36"/>
       <c r="C179" s="37"/>
@@ -15449,7 +15450,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="180" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>7</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="181" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="36"/>
       <c r="C181" s="37"/>
@@ -15570,7 +15571,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="182" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>7</v>
       </c>
@@ -15764,7 +15765,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="183" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>7</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="184" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="36"/>
       <c r="C184" s="37"/>
@@ -15886,7 +15887,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="185" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="36"/>
       <c r="C185" s="37"/>
@@ -15916,7 +15917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>7</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="187" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="36"/>
       <c r="C187" s="37"/>
@@ -16044,7 +16045,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="188" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>7</v>
       </c>
@@ -16139,7 +16140,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="189" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="36"/>
       <c r="C189" s="37"/>
@@ -16171,7 +16172,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="190" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>7</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="191" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>7</v>
       </c>
@@ -16358,7 +16359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="36"/>
       <c r="C192" s="37"/>
@@ -16392,7 +16393,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="193" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>7</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>7</v>
       </c>
@@ -16692,7 +16693,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="195" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>7</v>
       </c>
@@ -16796,7 +16797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
         <v>7</v>
       </c>
@@ -16900,7 +16901,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="197" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="36"/>
       <c r="C197" s="37"/>
@@ -16943,7 +16944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>7</v>
       </c>
@@ -17036,7 +17037,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="199" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="36"/>
       <c r="C199" s="37"/>
@@ -17068,7 +17069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="36"/>
       <c r="C200" s="37"/>
@@ -17100,7 +17101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>7</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="202" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="B202" s="36"/>
       <c r="C202" s="37"/>
@@ -17221,7 +17222,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="203" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
         <v>7</v>
       </c>
@@ -17311,7 +17312,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="204" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="36"/>
       <c r="C204" s="37"/>
@@ -17342,7 +17343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
         <v>7</v>
       </c>
@@ -17444,7 +17445,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="206" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="36"/>
       <c r="C206" s="37"/>
@@ -17487,7 +17488,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="207" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>7</v>
       </c>
@@ -17580,7 +17581,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="208" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
         <v>7</v>
       </c>
@@ -17774,7 +17775,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="209" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
         <v>7</v>
       </c>
@@ -17876,7 +17877,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="210" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>7</v>
       </c>
@@ -17966,7 +17967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="B211" s="36"/>
       <c r="C211" s="37"/>
@@ -17996,7 +17997,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="212" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="36"/>
       <c r="C212" s="37"/>
@@ -18026,7 +18027,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="213" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>7</v>
       </c>
@@ -18116,7 +18117,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="214" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
       <c r="B214" s="36"/>
       <c r="C214" s="37"/>
@@ -18146,7 +18147,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="215" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>7</v>
       </c>
@@ -18236,7 +18237,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="216" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="36"/>
       <c r="C216" s="37"/>
@@ -18267,7 +18268,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="217" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>7</v>
       </c>
@@ -18360,7 +18361,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="218" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="36"/>
       <c r="C218" s="37"/>
@@ -18394,7 +18395,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="219" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
         <v>7</v>
       </c>
@@ -18588,7 +18589,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="220" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
         <v>7</v>
       </c>
@@ -18681,7 +18682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="36"/>
       <c r="C221" s="37"/>
@@ -18715,7 +18716,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
       <c r="B222" s="36"/>
       <c r="C222" s="37"/>
@@ -18749,7 +18750,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="223" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
         <v>7</v>
       </c>
@@ -18868,7 +18869,7 @@
       <c r="BN223" s="54"/>
       <c r="BO223" s="54"/>
     </row>
-    <row r="224" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A224" s="19"/>
       <c r="B224" s="41"/>
       <c r="C224" s="42"/>
@@ -18934,7 +18935,7 @@
       <c r="BN224" s="54"/>
       <c r="BO224" s="54"/>
     </row>
-    <row r="225" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A225" s="19"/>
       <c r="B225" s="41"/>
       <c r="C225" s="42"/>
@@ -19000,7 +19001,7 @@
       <c r="BN225" s="54"/>
       <c r="BO225" s="54"/>
     </row>
-    <row r="226" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A226" s="19" t="s">
         <v>7</v>
       </c>
@@ -19123,7 +19124,7 @@
       <c r="BN226" s="54"/>
       <c r="BO226" s="54"/>
     </row>
-    <row r="227" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A227" s="19"/>
       <c r="B227" s="41"/>
       <c r="C227" s="42"/>
@@ -19193,7 +19194,7 @@
       <c r="BN227" s="54"/>
       <c r="BO227" s="54"/>
     </row>
-    <row r="228" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A228" s="19"/>
       <c r="B228" s="41"/>
       <c r="C228" s="42"/>
@@ -19263,7 +19264,7 @@
       <c r="BN228" s="54"/>
       <c r="BO228" s="54"/>
     </row>
-    <row r="229" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>7</v>
       </c>
@@ -19382,7 +19383,7 @@
       <c r="BN229" s="54"/>
       <c r="BO229" s="54"/>
     </row>
-    <row r="230" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A230" s="19"/>
       <c r="B230" s="41"/>
       <c r="C230" s="42"/>
@@ -19448,7 +19449,7 @@
       <c r="BN230" s="54"/>
       <c r="BO230" s="54"/>
     </row>
-    <row r="231" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A231" s="19"/>
       <c r="B231" s="41"/>
       <c r="C231" s="42"/>
@@ -19514,7 +19515,7 @@
       <c r="BN231" s="54"/>
       <c r="BO231" s="54"/>
     </row>
-    <row r="232" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="19" t="s">
         <v>7</v>
       </c>
@@ -19633,7 +19634,7 @@
       <c r="BN232" s="54"/>
       <c r="BO232" s="54"/>
     </row>
-    <row r="233" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="19" t="s">
         <v>7</v>
       </c>
@@ -19752,7 +19753,7 @@
       <c r="BN233" s="54"/>
       <c r="BO233" s="54"/>
     </row>
-    <row r="234" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="19"/>
       <c r="B234" s="41"/>
       <c r="C234" s="42"/>
@@ -19818,7 +19819,7 @@
       <c r="BN234" s="54"/>
       <c r="BO234" s="54"/>
     </row>
-    <row r="235" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="19"/>
       <c r="B235" s="41"/>
       <c r="C235" s="42"/>
@@ -19884,7 +19885,7 @@
       <c r="BN235" s="54"/>
       <c r="BO235" s="54"/>
     </row>
-    <row r="236" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="19" t="s">
         <v>7</v>
       </c>
@@ -20079,7 +20080,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="237" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="19" t="s">
         <v>7</v>
       </c>
@@ -20202,7 +20203,7 @@
       <c r="BN237" s="54"/>
       <c r="BO237" s="54"/>
     </row>
-    <row r="238" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
         <v>7</v>
       </c>
@@ -20292,7 +20293,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="239" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
       <c r="B239" s="36"/>
       <c r="C239" s="37"/>
@@ -20321,7 +20322,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="240" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A240" s="8"/>
       <c r="B240" s="36"/>
       <c r="C240" s="37"/>
@@ -20350,7 +20351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>7</v>
       </c>
@@ -20440,7 +20441,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="242" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
       <c r="B242" s="36"/>
       <c r="C242" s="37"/>
@@ -20470,7 +20471,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="243" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
       <c r="B243" s="36"/>
       <c r="C243" s="37"/>
@@ -20500,7 +20501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>7</v>
       </c>
@@ -20596,7 +20597,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="245" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
       <c r="B245" s="36"/>
       <c r="C245" s="37"/>
@@ -20633,7 +20634,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="246" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>7</v>
       </c>
@@ -20735,7 +20736,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="247" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A247" s="8"/>
       <c r="B247" s="36"/>
       <c r="C247" s="37"/>
@@ -20778,7 +20779,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="248" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>7</v>
       </c>
@@ -20972,7 +20973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="249" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
         <v>7</v>
       </c>
@@ -21074,7 +21075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>7</v>
       </c>
@@ -21166,7 +21167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A251" s="8"/>
       <c r="B251" s="36"/>
       <c r="C251" s="37"/>
@@ -21196,7 +21197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>7</v>
       </c>
@@ -21288,7 +21289,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="253" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
       <c r="B253" s="36"/>
       <c r="C253" s="37"/>
@@ -21319,7 +21320,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="254" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
         <v>7</v>
       </c>
@@ -21420,7 +21421,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="255" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
       <c r="B255" s="36"/>
       <c r="C255" s="37"/>
@@ -21460,7 +21461,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="256" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
         <v>7</v>
       </c>
@@ -21656,7 +21657,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="257" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>7</v>
       </c>
@@ -21748,7 +21749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="258" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
       <c r="B258" s="36"/>
       <c r="C258" s="37"/>
@@ -21779,7 +21780,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="259" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="36"/>
       <c r="C259" s="37"/>
@@ -21810,7 +21811,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="260" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A260" s="19" t="s">
         <v>7</v>
       </c>
@@ -21929,7 +21930,7 @@
       <c r="BN260" s="54"/>
       <c r="BO260" s="54"/>
     </row>
-    <row r="261" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A261" s="19"/>
       <c r="B261" s="41"/>
       <c r="C261" s="42"/>
@@ -21995,7 +21996,7 @@
       <c r="BN261" s="54"/>
       <c r="BO261" s="54"/>
     </row>
-    <row r="262" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A262" s="19" t="s">
         <v>7</v>
       </c>
@@ -22114,7 +22115,7 @@
       <c r="BN262" s="54"/>
       <c r="BO262" s="54"/>
     </row>
-    <row r="263" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A263" s="19"/>
       <c r="B263" s="41"/>
       <c r="C263" s="42"/>
@@ -22180,7 +22181,7 @@
       <c r="BN263" s="54"/>
       <c r="BO263" s="54"/>
     </row>
-    <row r="264" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A264" s="19"/>
       <c r="B264" s="41"/>
       <c r="C264" s="42"/>
@@ -22246,7 +22247,7 @@
       <c r="BN264" s="54"/>
       <c r="BO264" s="54"/>
     </row>
-    <row r="265" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A265" s="19" t="s">
         <v>7</v>
       </c>
@@ -22365,7 +22366,7 @@
       <c r="BN265" s="54"/>
       <c r="BO265" s="54"/>
     </row>
-    <row r="266" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A266" s="19"/>
       <c r="B266" s="41"/>
       <c r="C266" s="42"/>
@@ -22431,7 +22432,7 @@
       <c r="BN266" s="54"/>
       <c r="BO266" s="54"/>
     </row>
-    <row r="267" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A267" s="19" t="s">
         <v>7</v>
       </c>
@@ -22558,7 +22559,7 @@
       <c r="BN267" s="54"/>
       <c r="BO267" s="54"/>
     </row>
-    <row r="268" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A268" s="19"/>
       <c r="B268" s="41"/>
       <c r="C268" s="42"/>
@@ -22633,7 +22634,7 @@
       <c r="BN268" s="54"/>
       <c r="BO268" s="54"/>
     </row>
-    <row r="269" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A269" s="19" t="s">
         <v>7</v>
       </c>
@@ -22828,7 +22829,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="270" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="19" t="s">
         <v>7</v>
       </c>
@@ -22949,7 +22950,7 @@
       <c r="BN270" s="54"/>
       <c r="BO270" s="54"/>
     </row>
-    <row r="271" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="19"/>
       <c r="B271" s="41"/>
       <c r="C271" s="42"/>
@@ -23018,7 +23019,7 @@
       <c r="BN271" s="54"/>
       <c r="BO271" s="54"/>
     </row>
-    <row r="272" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="19"/>
       <c r="B272" s="41"/>
       <c r="C272" s="42"/>
@@ -23087,7 +23088,7 @@
       <c r="BN272" s="54"/>
       <c r="BO272" s="54"/>
     </row>
-    <row r="273" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
         <v>7</v>
       </c>
@@ -23183,7 +23184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
       <c r="B274" s="36"/>
       <c r="C274" s="37"/>
@@ -23218,7 +23219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
       <c r="B275" s="36"/>
       <c r="C275" s="37"/>
@@ -23253,7 +23254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
         <v>7</v>
       </c>
@@ -23346,7 +23347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
       <c r="B277" s="36"/>
       <c r="C277" s="37"/>
@@ -23379,7 +23380,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="278" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
         <v>7</v>
       </c>
@@ -23475,7 +23476,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="279" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
       <c r="B279" s="36"/>
       <c r="C279" s="37"/>
@@ -23511,7 +23512,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
       <c r="B280" s="36"/>
       <c r="C280" s="37"/>
@@ -23547,7 +23548,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="281" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
         <v>7</v>
       </c>
@@ -23637,7 +23638,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="282" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="36"/>
       <c r="C282" s="37"/>
@@ -23667,7 +23668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
       <c r="B283" s="36"/>
       <c r="C283" s="37"/>
@@ -23697,7 +23698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
         <v>7</v>
       </c>
@@ -23787,7 +23788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
       <c r="B285" s="36"/>
       <c r="C285" s="37"/>
@@ -23818,7 +23819,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="286" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
       <c r="B286" s="36"/>
       <c r="C286" s="37"/>
@@ -23849,7 +23850,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="287" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
         <v>7</v>
       </c>
@@ -23951,7 +23952,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="288" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
         <v>7</v>
       </c>
@@ -24041,7 +24042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="8"/>
       <c r="B289" s="36"/>
       <c r="C289" s="37"/>
@@ -24072,7 +24073,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="290" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
         <v>7</v>
       </c>
@@ -24174,7 +24175,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="291" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
         <v>7</v>
       </c>
@@ -24368,7 +24369,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="292" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
         <v>7</v>
       </c>
@@ -24464,7 +24465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A293" s="19" t="s">
         <v>7</v>
       </c>
@@ -24585,7 +24586,7 @@
       <c r="BN293" s="54"/>
       <c r="BO293" s="54"/>
     </row>
-    <row r="294" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A294" s="19"/>
       <c r="B294" s="36"/>
       <c r="C294" s="42"/>
@@ -24653,7 +24654,7 @@
       <c r="BN294" s="54"/>
       <c r="BO294" s="54"/>
     </row>
-    <row r="295" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A295" s="19"/>
       <c r="B295" s="36"/>
       <c r="C295" s="42"/>
@@ -24721,7 +24722,7 @@
       <c r="BN295" s="54"/>
       <c r="BO295" s="54"/>
     </row>
-    <row r="296" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A296" s="19" t="s">
         <v>7</v>
       </c>
@@ -24840,7 +24841,7 @@
       <c r="BN296" s="54"/>
       <c r="BO296" s="54"/>
     </row>
-    <row r="297" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A297" s="19"/>
       <c r="B297" s="36"/>
       <c r="C297" s="42"/>
@@ -24906,7 +24907,7 @@
       <c r="BN297" s="54"/>
       <c r="BO297" s="54"/>
     </row>
-    <row r="298" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A298" s="19" t="s">
         <v>7</v>
       </c>
@@ -25025,7 +25026,7 @@
       <c r="BN298" s="54"/>
       <c r="BO298" s="54"/>
     </row>
-    <row r="299" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A299" s="19"/>
       <c r="B299" s="36"/>
       <c r="C299" s="42"/>
@@ -25091,7 +25092,7 @@
       <c r="BN299" s="54"/>
       <c r="BO299" s="54"/>
     </row>
-    <row r="300" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A300" s="19"/>
       <c r="B300" s="36"/>
       <c r="C300" s="42"/>
@@ -25157,7 +25158,7 @@
       <c r="BN300" s="54"/>
       <c r="BO300" s="54"/>
     </row>
-    <row r="301" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A301" s="19" t="s">
         <v>7</v>
       </c>
@@ -25276,7 +25277,7 @@
       <c r="BN301" s="54"/>
       <c r="BO301" s="54"/>
     </row>
-    <row r="302" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A302" s="19"/>
       <c r="B302" s="36"/>
       <c r="C302" s="42"/>
@@ -25342,7 +25343,7 @@
       <c r="BN302" s="54"/>
       <c r="BO302" s="54"/>
     </row>
-    <row r="303" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="19"/>
       <c r="B303" s="36"/>
       <c r="C303" s="42"/>
@@ -25408,7 +25409,7 @@
       <c r="BN303" s="54"/>
       <c r="BO303" s="54"/>
     </row>
-    <row r="304" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="19" t="s">
         <v>7</v>
       </c>
@@ -25527,7 +25528,7 @@
       <c r="BN304" s="54"/>
       <c r="BO304" s="54"/>
     </row>
-    <row r="305" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="19"/>
       <c r="B305" s="36"/>
       <c r="C305" s="42"/>
@@ -25594,7 +25595,7 @@
       <c r="BN305" s="54"/>
       <c r="BO305" s="54"/>
     </row>
-    <row r="306" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="19" t="s">
         <v>7</v>
       </c>
@@ -25713,7 +25714,7 @@
       <c r="BN306" s="54"/>
       <c r="BO306" s="54"/>
     </row>
-    <row r="307" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="19"/>
       <c r="B307" s="36"/>
       <c r="C307" s="42"/>
@@ -25780,7 +25781,7 @@
       <c r="BN307" s="54"/>
       <c r="BO307" s="54"/>
     </row>
-    <row r="308" spans="1:67" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:67" s="49" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="19" t="s">
         <v>7</v>
       </c>
@@ -25975,7 +25976,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="309" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
         <v>7</v>
       </c>
@@ -26067,7 +26068,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="310" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
       <c r="B310" s="36"/>
       <c r="C310" s="37"/>
@@ -26097,7 +26098,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="311" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
         <v>7</v>
       </c>
@@ -26189,7 +26190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
       <c r="B312" s="36"/>
       <c r="C312" s="37"/>
@@ -26219,7 +26220,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="313" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A313" s="8" t="s">
         <v>7</v>
       </c>
@@ -26311,7 +26312,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
       <c r="B314" s="36"/>
       <c r="C314" s="37"/>
@@ -26341,7 +26342,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="315" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
       <c r="B315" s="36"/>
       <c r="C315" s="37"/>
@@ -26371,7 +26372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A316" s="8" t="s">
         <v>7</v>
       </c>
@@ -26466,7 +26467,7 @@
         <v>108.10000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
       <c r="B317" s="36"/>
       <c r="C317" s="37"/>
@@ -26499,7 +26500,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="318" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
       <c r="B318" s="36"/>
       <c r="C318" s="37"/>
@@ -26532,7 +26533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
         <v>7</v>
       </c>
@@ -26624,7 +26625,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="320" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
       <c r="B320" s="36"/>
       <c r="C320" s="37"/>
@@ -26655,7 +26656,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="321" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="8" t="s">
         <v>7</v>
       </c>
@@ -26851,7 +26852,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="322" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="s">
         <v>7</v>
       </c>
@@ -26955,7 +26956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
       <c r="B323" s="36"/>
       <c r="C323" s="37"/>
@@ -26998,7 +26999,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="324" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A324" s="19" t="s">
         <v>7</v>
       </c>
@@ -27117,7 +27118,7 @@
       <c r="BN324" s="54"/>
       <c r="BO324" s="54"/>
     </row>
-    <row r="325" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A325" s="19"/>
       <c r="B325" s="41"/>
       <c r="C325" s="42"/>
@@ -27183,7 +27184,7 @@
       <c r="BN325" s="54"/>
       <c r="BO325" s="54"/>
     </row>
-    <row r="326" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A326" s="19" t="s">
         <v>7</v>
       </c>
@@ -27304,7 +27305,7 @@
       <c r="BN326" s="54"/>
       <c r="BO326" s="54"/>
     </row>
-    <row r="327" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A327" s="19"/>
       <c r="B327" s="41"/>
       <c r="C327" s="42"/>
@@ -27373,7 +27374,7 @@
       <c r="BN327" s="54"/>
       <c r="BO327" s="54"/>
     </row>
-    <row r="328" spans="1:67" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:67" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A328" s="19" t="s">
         <v>7</v>
       </c>
@@ -27568,7 +27569,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="329" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A329" s="8" t="s">
         <v>7</v>
       </c>
@@ -27660,7 +27661,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="330" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A330" s="8"/>
       <c r="B330" s="36"/>
       <c r="C330" s="37"/>
@@ -27689,7 +27690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A331" s="8"/>
       <c r="B331" s="36"/>
       <c r="C331" s="37"/>
@@ -27718,7 +27719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A332" s="8" t="s">
         <v>7</v>
       </c>
@@ -27810,7 +27811,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="333" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A333" s="8"/>
       <c r="B333" s="36"/>
       <c r="C333" s="37"/>
@@ -27840,7 +27841,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="334" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A334" s="8"/>
       <c r="B334" s="36"/>
       <c r="C334" s="37"/>
@@ -27870,7 +27871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
         <v>7</v>
       </c>
@@ -27965,7 +27966,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="336" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A336" s="8"/>
       <c r="B336" s="36"/>
       <c r="C336" s="37"/>
@@ -27998,7 +27999,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="337" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
         <v>7</v>
       </c>
@@ -28093,7 +28094,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="338" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
       <c r="B338" s="36"/>
       <c r="C338" s="37"/>
@@ -28126,7 +28127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A339" s="8"/>
       <c r="B339" s="36"/>
       <c r="C339" s="37"/>
@@ -28159,7 +28160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
         <v>7</v>
       </c>
@@ -28254,7 +28255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
       <c r="B341" s="36"/>
       <c r="C341" s="37"/>
@@ -28287,7 +28288,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="342" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
       <c r="B342" s="36"/>
       <c r="C342" s="37"/>
@@ -28320,7 +28321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="8"/>
       <c r="B343" s="36"/>
       <c r="C343" s="37"/>
@@ -28353,7 +28354,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="344" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
         <v>7</v>
       </c>
@@ -28445,7 +28446,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="345" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A345" s="8"/>
       <c r="B345" s="36"/>
       <c r="C345" s="37"/>
@@ -28474,7 +28475,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="346" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
         <v>7</v>
       </c>
@@ -28566,7 +28567,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="347" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="8"/>
       <c r="B347" s="36"/>
       <c r="C347" s="37"/>
@@ -28597,7 +28598,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="348" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
         <v>7</v>
       </c>
@@ -28692,7 +28693,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="349" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="8"/>
       <c r="B349" s="36"/>
       <c r="C349" s="37"/>
@@ -28726,7 +28727,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="350" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
         <v>7</v>
       </c>
@@ -28821,7 +28822,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="351" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="8"/>
       <c r="B351" s="36"/>
       <c r="C351" s="37"/>
@@ -28855,7 +28856,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="352" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
         <v>7</v>
       </c>
@@ -29051,7 +29052,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="353" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
         <v>7</v>
       </c>
@@ -29155,7 +29156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A354" s="8"/>
       <c r="B354" s="36"/>
       <c r="C354" s="37"/>
@@ -29198,7 +29199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
         <v>7</v>
       </c>
@@ -29290,7 +29291,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="356" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A356" s="8"/>
       <c r="B356" s="36"/>
       <c r="C356" s="37"/>
@@ -29320,7 +29321,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="357" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A357" s="8"/>
       <c r="B357" s="36"/>
       <c r="C357" s="37"/>
@@ -29350,7 +29351,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="358" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
         <v>7</v>
       </c>
@@ -29445,7 +29446,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="359" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
       <c r="B359" s="36"/>
       <c r="C359" s="37"/>
@@ -29478,7 +29479,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="360" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
       <c r="B360" s="36"/>
       <c r="C360" s="37"/>
@@ -29511,7 +29512,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="361" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A361" s="8" t="s">
         <v>7</v>
       </c>
@@ -29603,7 +29604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A362" s="8"/>
       <c r="B362" s="36"/>
       <c r="C362" s="37"/>
@@ -29634,7 +29635,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="363" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
       <c r="B363" s="36"/>
       <c r="C363" s="37"/>
@@ -29665,7 +29666,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="364" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="s">
         <v>7</v>
       </c>
@@ -29769,7 +29770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="8" t="s">
         <v>7</v>
       </c>
@@ -29861,7 +29862,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="366" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="8"/>
       <c r="B366" s="36"/>
       <c r="C366" s="37"/>
@@ -29892,7 +29893,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="367" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
         <v>7</v>
       </c>
@@ -29984,7 +29985,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="368" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
       <c r="B368" s="36"/>
       <c r="C368" s="37"/>
@@ -30015,7 +30016,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="369" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
         <v>7</v>
       </c>
@@ -30113,7 +30114,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="370" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="8"/>
       <c r="B370" s="36"/>
       <c r="C370" s="37"/>
@@ -30150,7 +30151,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="371" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
         <v>7</v>
       </c>
@@ -30346,7 +30347,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="372" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
         <v>7</v>
       </c>
@@ -30439,7 +30440,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="373" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
       <c r="B373" s="36"/>
       <c r="C373" s="37"/>
@@ -30472,7 +30473,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="374" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
         <v>7</v>
       </c>
@@ -30568,7 +30569,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="375" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A375" s="8"/>
       <c r="B375" s="36"/>
       <c r="C375" s="37"/>
@@ -30604,7 +30605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A376" s="8"/>
       <c r="B376" s="36"/>
       <c r="C376" s="37"/>
@@ -30640,7 +30641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A377" s="8" t="s">
         <v>7</v>
       </c>
@@ -30736,7 +30737,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="378" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A378" s="8"/>
       <c r="B378" s="36"/>
       <c r="C378" s="37"/>
@@ -30772,7 +30773,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="379" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A379" s="8"/>
       <c r="B379" s="36"/>
       <c r="C379" s="37"/>
@@ -30808,7 +30809,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="380" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
         <v>7</v>
       </c>
@@ -30898,7 +30899,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="381" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A381" s="8"/>
       <c r="B381" s="36"/>
       <c r="C381" s="37"/>
@@ -30929,7 +30930,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="382" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
         <v>7</v>
       </c>
@@ -31019,7 +31020,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="383" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="8"/>
       <c r="B383" s="36"/>
       <c r="C383" s="37"/>
@@ -31050,7 +31051,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="384" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
         <v>7</v>
       </c>
@@ -31244,7 +31245,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="385" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
         <v>7</v>
       </c>
@@ -31346,7 +31347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="8"/>
       <c r="B386" s="36"/>
       <c r="C386" s="37"/>
@@ -31389,7 +31390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>7</v>
       </c>
@@ -31484,7 +31485,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="388" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A388" s="8"/>
       <c r="B388" s="36"/>
       <c r="C388" s="37"/>
@@ -31516,7 +31517,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="389" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A389" s="8"/>
       <c r="B389" s="36"/>
       <c r="C389" s="37"/>
@@ -31548,7 +31549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
         <v>7</v>
       </c>
@@ -31643,7 +31644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A391" s="8"/>
       <c r="B391" s="36"/>
       <c r="C391" s="37"/>
@@ -31676,7 +31677,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="392" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>7</v>
       </c>
@@ -31768,7 +31769,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="393" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A393" s="8"/>
       <c r="B393" s="36"/>
       <c r="C393" s="37"/>
@@ -31799,7 +31800,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="394" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A394" s="8"/>
       <c r="B394" s="36"/>
       <c r="C394" s="37"/>
@@ -31830,7 +31831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>7</v>
       </c>
@@ -31922,7 +31923,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="396" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A396" s="8"/>
       <c r="B396" s="36"/>
       <c r="C396" s="37"/>
@@ -31952,7 +31953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A397" s="8"/>
       <c r="B397" s="36"/>
       <c r="C397" s="37"/>
@@ -31982,7 +31983,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="398" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
         <v>7</v>
       </c>
@@ -32074,7 +32075,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="399" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="8"/>
       <c r="B399" s="36"/>
       <c r="C399" s="37"/>
@@ -32104,7 +32105,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="400" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="8"/>
       <c r="B400" s="36"/>
       <c r="C400" s="37"/>
@@ -32134,7 +32135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
         <v>7</v>
       </c>
@@ -32229,7 +32230,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="402" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="8"/>
       <c r="B402" s="36"/>
       <c r="C402" s="37"/>
@@ -32262,7 +32263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="8"/>
       <c r="B403" s="36"/>
       <c r="C403" s="37"/>
@@ -32295,7 +32296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
         <v>7</v>
       </c>
@@ -32387,7 +32388,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="405" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="8"/>
       <c r="B405" s="36"/>
       <c r="C405" s="37"/>
@@ -32418,7 +32419,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="406" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="8"/>
       <c r="B406" s="36"/>
       <c r="C406" s="37"/>
@@ -32449,7 +32450,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="407" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
         <v>7</v>
       </c>
@@ -32553,7 +32554,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="408" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="8"/>
       <c r="B408" s="36"/>
       <c r="C408" s="37"/>
@@ -32596,7 +32597,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="409" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
         <v>7</v>
       </c>
@@ -32700,7 +32701,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="410" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A410" s="8"/>
       <c r="B410" s="36"/>
       <c r="C410" s="37"/>
@@ -32743,7 +32744,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="411" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
         <v>7</v>
       </c>
@@ -32939,7 +32940,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="412" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A412" s="8" t="s">
         <v>7</v>
       </c>
@@ -33031,7 +33032,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="413" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A413" s="8"/>
       <c r="B413" s="36"/>
       <c r="C413" s="37"/>
@@ -33061,7 +33062,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="414" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
         <v>7</v>
       </c>
@@ -33165,7 +33166,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="415" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
         <v>7</v>
       </c>
@@ -33254,7 +33255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="416" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
         <v>7</v>
       </c>
@@ -33346,7 +33347,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="417" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A417" s="8"/>
       <c r="B417" s="36"/>
       <c r="C417" s="37"/>
@@ -33377,7 +33378,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="418" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
         <v>7</v>
       </c>
@@ -33472,7 +33473,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="419" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A419" s="8"/>
       <c r="B419" s="36"/>
       <c r="C419" s="37"/>
@@ -33506,7 +33507,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="420" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
         <v>7</v>
       </c>
@@ -33702,7 +33703,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="421" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
         <v>7</v>
       </c>
@@ -33794,7 +33795,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="422" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A422" s="8"/>
       <c r="B422" s="36"/>
       <c r="C422" s="37"/>
@@ -33824,7 +33825,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="423" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
         <v>7</v>
       </c>
@@ -33928,7 +33929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A424" s="8"/>
       <c r="B424" s="36"/>
       <c r="C424" s="37"/>
@@ -33970,7 +33971,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="425" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A425" s="8"/>
       <c r="B425" s="36"/>
       <c r="C425" s="37"/>
@@ -34012,7 +34013,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="426" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
         <v>7</v>
       </c>
@@ -34104,7 +34105,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="427" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A427" s="8"/>
       <c r="B427" s="36"/>
       <c r="C427" s="37"/>
@@ -34134,7 +34135,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="428" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A428" s="8"/>
       <c r="B428" s="36"/>
       <c r="C428" s="37"/>
@@ -34164,7 +34165,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="429" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A429" s="8" t="s">
         <v>7</v>
       </c>
@@ -34256,7 +34257,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="430" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A430" s="8"/>
       <c r="B430" s="36"/>
       <c r="C430" s="37"/>
@@ -34286,7 +34287,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="431" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="8"/>
       <c r="B431" s="36"/>
       <c r="C431" s="37"/>
@@ -34316,7 +34317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
         <v>7</v>
       </c>
@@ -34408,7 +34409,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="433" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="8"/>
       <c r="B433" s="36"/>
       <c r="C433" s="37"/>
@@ -34438,7 +34439,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="434" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="8"/>
       <c r="B434" s="36"/>
       <c r="C434" s="37"/>
@@ -34468,7 +34469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="8" t="s">
         <v>7</v>
       </c>
@@ -34557,7 +34558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="436" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
         <v>7</v>
       </c>
@@ -34649,7 +34650,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="437" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="8"/>
       <c r="B437" s="36"/>
       <c r="C437" s="37"/>
@@ -34680,7 +34681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="8"/>
       <c r="B438" s="36"/>
       <c r="C438" s="37"/>
@@ -34711,7 +34712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="8" t="s">
         <v>7</v>
       </c>
@@ -34803,7 +34804,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="440" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="8" t="s">
         <v>7</v>
       </c>
@@ -34895,7 +34896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="8"/>
       <c r="B441" s="36"/>
       <c r="C441" s="37"/>
@@ -34926,7 +34927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
         <v>7</v>
       </c>
@@ -35122,7 +35123,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="443" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A443" s="8" t="s">
         <v>7</v>
       </c>
@@ -35218,7 +35219,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="444" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A444" s="8"/>
       <c r="B444" s="36"/>
       <c r="C444" s="37"/>
@@ -35254,7 +35255,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="445" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
         <v>7</v>
       </c>
@@ -35344,7 +35345,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="446" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A446" s="8"/>
       <c r="B446" s="36"/>
       <c r="C446" s="37"/>
@@ -35375,7 +35376,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="447" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A447" s="8"/>
       <c r="B447" s="36"/>
       <c r="C447" s="37"/>
@@ -35406,7 +35407,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="448" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="s">
         <v>7</v>
       </c>
@@ -35508,7 +35509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
         <v>7</v>
       </c>
@@ -35598,7 +35599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A450" s="8"/>
       <c r="B450" s="36"/>
       <c r="C450" s="37"/>
@@ -35629,7 +35630,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="451" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A451" s="8" t="s">
         <v>7</v>
       </c>
@@ -35725,7 +35726,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="452" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A452" s="8"/>
       <c r="B452" s="36"/>
       <c r="C452" s="37"/>
@@ -35762,7 +35763,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="453" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
         <v>7</v>
       </c>
@@ -35956,7 +35957,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="454" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
         <v>7</v>
       </c>
@@ -36048,7 +36049,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A455" s="8"/>
       <c r="B455" s="36"/>
       <c r="C455" s="37"/>
@@ -36077,7 +36078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A456" s="8"/>
       <c r="B456" s="36"/>
       <c r="C456" s="37"/>
@@ -36106,7 +36107,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="457" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A457" s="8" t="s">
         <v>7</v>
       </c>
@@ -36198,7 +36199,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="458" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A458" s="8"/>
       <c r="B458" s="36"/>
       <c r="C458" s="37"/>
@@ -36228,7 +36229,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="459" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A459" s="8"/>
       <c r="B459" s="36"/>
       <c r="C459" s="37"/>
@@ -36258,7 +36259,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="460" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A460" s="8" t="s">
         <v>7</v>
       </c>
@@ -36350,7 +36351,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="461" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A461" s="8"/>
       <c r="B461" s="36"/>
       <c r="C461" s="37"/>
@@ -36379,7 +36380,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="462" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A462" s="8" t="s">
         <v>7</v>
       </c>
@@ -36471,7 +36472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A463" s="8"/>
       <c r="B463" s="36"/>
       <c r="C463" s="37"/>
@@ -36502,7 +36503,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="464" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A464" s="8" t="s">
         <v>7</v>
       </c>
@@ -36698,7 +36699,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="465" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A465" s="8" t="s">
         <v>7</v>
       </c>
@@ -36788,7 +36789,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="466" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A466" s="8"/>
       <c r="B466" s="36"/>
       <c r="C466" s="37"/>
@@ -36818,7 +36819,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="467" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A467" s="8"/>
       <c r="B467" s="36"/>
       <c r="C467" s="37"/>
@@ -36848,7 +36849,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="468" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="s">
         <v>7</v>
       </c>
@@ -36950,7 +36951,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="469" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A469" s="8"/>
       <c r="B469" s="36"/>
       <c r="C469" s="37"/>
@@ -36992,7 +36993,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="470" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
         <v>7</v>
       </c>
@@ -37082,7 +37083,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A471" s="8"/>
       <c r="B471" s="36"/>
       <c r="C471" s="37"/>
@@ -37113,7 +37114,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="472" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
         <v>7</v>
       </c>
@@ -37206,7 +37207,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="473" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A473" s="8"/>
       <c r="B473" s="36"/>
       <c r="C473" s="37"/>
@@ -37240,7 +37241,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="474" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A474" s="8" t="s">
         <v>7</v>
       </c>
@@ -37434,7 +37435,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="475" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A475" s="8" t="s">
         <v>7</v>
       </c>
@@ -37529,7 +37530,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="476" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A476" s="8"/>
       <c r="B476" s="36"/>
       <c r="C476" s="37"/>
@@ -37562,7 +37563,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="477" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A477" s="8"/>
       <c r="B477" s="36"/>
       <c r="C477" s="37"/>
@@ -37595,7 +37596,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="478" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A478" s="8" t="s">
         <v>7</v>
       </c>
@@ -37687,7 +37688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A479" s="8"/>
       <c r="B479" s="36"/>
       <c r="C479" s="37"/>
@@ -37717,7 +37718,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="480" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A480" s="8" t="s">
         <v>7</v>
       </c>
@@ -37809,7 +37810,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="481" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A481" s="8"/>
       <c r="B481" s="36"/>
       <c r="C481" s="37"/>
@@ -37839,7 +37840,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="482" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A482" s="8"/>
       <c r="B482" s="36"/>
       <c r="C482" s="37"/>
@@ -37869,7 +37870,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A483" s="8"/>
       <c r="B483" s="36"/>
       <c r="C483" s="37"/>
@@ -37899,7 +37900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="8" t="s">
         <v>7</v>
       </c>
@@ -37991,7 +37992,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="485" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="8"/>
       <c r="B485" s="36"/>
       <c r="C485" s="37"/>
@@ -38021,7 +38022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="8"/>
       <c r="B486" s="36"/>
       <c r="C486" s="37"/>
@@ -38051,7 +38052,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="487" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="8" t="s">
         <v>7</v>
       </c>
@@ -38146,7 +38147,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="488" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="8"/>
       <c r="B488" s="36"/>
       <c r="C488" s="37"/>
@@ -38180,7 +38181,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="489" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="8" t="s">
         <v>7</v>
       </c>
@@ -38281,7 +38282,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="490" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="8"/>
       <c r="B490" s="36"/>
       <c r="C490" s="37"/>
@@ -38321,7 +38322,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="491" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="8" t="s">
         <v>7</v>
       </c>
@@ -38517,14 +38518,16 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="492" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A492" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B492" s="36">
         <v>44447</v>
       </c>
-      <c r="C492" s="37"/>
+      <c r="C492" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D492" s="38"/>
       <c r="E492" s="8" t="s">
         <v>107</v>
@@ -38605,7 +38608,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="493" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A493" s="8"/>
       <c r="B493" s="36"/>
       <c r="C493" s="37"/>
@@ -38635,7 +38638,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="494" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A494" s="8"/>
       <c r="B494" s="36"/>
       <c r="C494" s="37"/>
@@ -38665,14 +38668,16 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="495" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A495" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B495" s="36">
         <v>44447</v>
       </c>
-      <c r="C495" s="37"/>
+      <c r="C495" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D495" s="38"/>
       <c r="E495" s="8" t="s">
         <v>107</v>
@@ -38753,7 +38758,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="496" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A496" s="8"/>
       <c r="B496" s="36"/>
       <c r="C496" s="37"/>
@@ -38783,14 +38788,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A497" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B497" s="36">
         <v>44447</v>
       </c>
-      <c r="C497" s="37"/>
+      <c r="C497" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D497" s="38"/>
       <c r="E497" s="8" t="s">
         <v>107</v>
@@ -38871,7 +38878,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="498" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A498" s="8"/>
       <c r="B498" s="36"/>
       <c r="C498" s="37"/>
@@ -38901,7 +38908,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="499" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A499" s="8"/>
       <c r="B499" s="36"/>
       <c r="C499" s="37"/>
@@ -38931,14 +38938,16 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="500" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A500" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B500" s="36">
         <v>44447</v>
       </c>
-      <c r="C500" s="37"/>
+      <c r="C500" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D500" s="38"/>
       <c r="E500" s="8" t="s">
         <v>107</v>
@@ -39019,7 +39028,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="501" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A501" s="8"/>
       <c r="B501" s="36"/>
       <c r="C501" s="37"/>
@@ -39049,7 +39058,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="502" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="8"/>
       <c r="B502" s="36"/>
       <c r="C502" s="37"/>
@@ -39079,14 +39088,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="503" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B503" s="36">
         <v>44447</v>
       </c>
-      <c r="C503" s="37"/>
+      <c r="C503" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D503" s="38"/>
       <c r="E503" s="8" t="s">
         <v>107</v>
@@ -39167,7 +39178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="504" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="8"/>
       <c r="B504" s="36"/>
       <c r="C504" s="37"/>
@@ -39197,7 +39208,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="505" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="8"/>
       <c r="B505" s="36"/>
       <c r="C505" s="37"/>
@@ -39227,14 +39238,16 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="506" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B506" s="36">
         <v>44447</v>
       </c>
-      <c r="C506" s="37"/>
+      <c r="C506" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D506" s="38"/>
       <c r="E506" s="8" t="s">
         <v>107</v>
@@ -39318,7 +39331,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="507" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="8"/>
       <c r="B507" s="36"/>
       <c r="C507" s="37"/>
@@ -39351,14 +39364,16 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="508" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B508" s="36">
         <v>44447</v>
       </c>
-      <c r="C508" s="37"/>
+      <c r="C508" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D508" s="38"/>
       <c r="E508" s="8" t="s">
         <v>107</v>
@@ -39439,7 +39454,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="509" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="8"/>
       <c r="B509" s="36"/>
       <c r="C509" s="37"/>
@@ -39470,14 +39485,16 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="510" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B510" s="36">
         <v>44447</v>
       </c>
-      <c r="C510" s="37"/>
+      <c r="C510" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D510" s="38"/>
       <c r="E510" s="8" t="s">
         <v>107</v>
@@ -39558,7 +39575,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="511" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="8"/>
       <c r="B511" s="36"/>
       <c r="C511" s="37"/>
@@ -39589,14 +39606,16 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="512" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B512" s="36">
         <v>44447</v>
       </c>
-      <c r="C512" s="37"/>
+      <c r="C512" s="57">
+        <v>0.37708333333333338</v>
+      </c>
       <c r="D512" s="38"/>
       <c r="E512" s="8" t="s">
         <v>107</v>
@@ -39781,7 +39800,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="513" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
         <v>7</v>
       </c>
@@ -39873,7 +39892,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="514" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A514" s="8"/>
       <c r="B514" s="36"/>
       <c r="C514" s="37"/>
@@ -39903,7 +39922,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="515" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A515" s="8"/>
       <c r="B515" s="36"/>
       <c r="C515" s="37"/>
@@ -39933,7 +39952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A516" s="8" t="s">
         <v>7</v>
       </c>
@@ -40025,7 +40044,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="517" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A517" s="8"/>
       <c r="B517" s="36"/>
       <c r="C517" s="37"/>
@@ -40056,7 +40075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A518" s="8"/>
       <c r="B518" s="36"/>
       <c r="C518" s="37"/>
@@ -40087,7 +40106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A519" s="8" t="s">
         <v>7</v>
       </c>
@@ -40185,7 +40204,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="520" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="s">
         <v>7</v>
       </c>
@@ -40280,7 +40299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A521" s="8"/>
       <c r="B521" s="36"/>
       <c r="C521" s="37"/>
@@ -40314,7 +40333,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="522" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A522" s="8" t="s">
         <v>7</v>
       </c>
@@ -40406,7 +40425,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="523" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="8"/>
       <c r="B523" s="36"/>
       <c r="C523" s="37"/>
@@ -40437,7 +40456,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="524" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="8" t="s">
         <v>7</v>
       </c>
@@ -40633,14 +40652,16 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="525" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A525" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B525" s="36">
         <v>44447</v>
       </c>
-      <c r="C525" s="37"/>
+      <c r="C525" s="57">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D525" s="38"/>
       <c r="E525" s="8">
         <v>610</v>
@@ -40721,7 +40742,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="526" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A526" s="8"/>
       <c r="B526" s="36"/>
       <c r="C526" s="37"/>
@@ -40751,14 +40772,16 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="527" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A527" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B527" s="36">
         <v>44447</v>
       </c>
-      <c r="C527" s="37"/>
+      <c r="C527" s="57">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D527" s="38"/>
       <c r="E527" s="8">
         <v>610</v>
@@ -40839,7 +40862,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A528" s="8"/>
       <c r="B528" s="36"/>
       <c r="C528" s="37"/>
@@ -40869,7 +40892,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="529" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A529" s="8"/>
       <c r="B529" s="36"/>
       <c r="C529" s="37"/>
@@ -40899,14 +40922,16 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="530" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A530" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B530" s="36">
         <v>44447</v>
       </c>
-      <c r="C530" s="37"/>
+      <c r="C530" s="57">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D530" s="38"/>
       <c r="E530" s="8">
         <v>610</v>
@@ -40987,7 +41012,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="531" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A531" s="8"/>
       <c r="B531" s="36"/>
       <c r="C531" s="37"/>
@@ -41017,7 +41042,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="532" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A532" s="8"/>
       <c r="B532" s="36"/>
       <c r="C532" s="37"/>
@@ -41047,14 +41072,16 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="533" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A533" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B533" s="36">
         <v>44447</v>
       </c>
-      <c r="C533" s="37"/>
+      <c r="C533" s="57">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D533" s="38"/>
       <c r="E533" s="8">
         <v>610</v>
@@ -41135,7 +41162,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="534" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A534" s="8"/>
       <c r="B534" s="36"/>
       <c r="C534" s="37"/>
@@ -41165,7 +41192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="8"/>
       <c r="B535" s="36"/>
       <c r="C535" s="37"/>
@@ -41195,14 +41222,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B536" s="36">
         <v>44447</v>
       </c>
-      <c r="C536" s="37"/>
+      <c r="C536" s="57">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D536" s="38"/>
       <c r="E536" s="8">
         <v>610</v>
@@ -41289,7 +41318,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="537" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="8"/>
       <c r="B537" s="36"/>
       <c r="C537" s="37"/>
@@ -41326,14 +41355,16 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="538" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B538" s="36">
         <v>44447</v>
       </c>
-      <c r="C538" s="37"/>
+      <c r="C538" s="57">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D538" s="38"/>
       <c r="E538" s="8">
         <v>610</v>
@@ -41518,7 +41549,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="539" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A539" s="8" t="s">
         <v>7</v>
       </c>
@@ -41610,7 +41641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A540" s="8"/>
       <c r="B540" s="36"/>
       <c r="C540" s="37"/>
@@ -41640,7 +41671,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="541" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A541" s="8" t="s">
         <v>7</v>
       </c>
@@ -41732,7 +41763,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="542" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A542" s="8"/>
       <c r="B542" s="36"/>
       <c r="C542" s="37"/>
@@ -41762,7 +41793,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="543" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A543" s="8"/>
       <c r="B543" s="36"/>
       <c r="C543" s="37"/>
@@ -41792,7 +41823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="544" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A544" s="8"/>
       <c r="B544" s="36"/>
       <c r="C544" s="37"/>
@@ -41822,7 +41853,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="545" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A545" s="8" t="s">
         <v>7</v>
       </c>
@@ -41917,7 +41948,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="546" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A546" s="8"/>
       <c r="B546" s="36"/>
       <c r="C546" s="37"/>
@@ -41951,7 +41982,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="547" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A547" s="8" t="s">
         <v>7</v>
       </c>
@@ -42147,7 +42178,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="548" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A548" s="8" t="s">
         <v>7</v>
       </c>
@@ -42240,7 +42271,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="549" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A549" s="8"/>
       <c r="B549" s="36"/>
       <c r="C549" s="37"/>
@@ -42273,7 +42304,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="550" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A550" s="8" t="s">
         <v>7</v>
       </c>
@@ -42366,7 +42397,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="551" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A551" s="8"/>
       <c r="B551" s="36"/>
       <c r="C551" s="37"/>
@@ -42399,7 +42430,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="552" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A552" s="8"/>
       <c r="B552" s="36"/>
       <c r="C552" s="37"/>
@@ -42432,7 +42463,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="553" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A553" s="8" t="s">
         <v>7</v>
       </c>
@@ -42626,7 +42657,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="554" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A554" s="8" t="s">
         <v>7</v>
       </c>
@@ -42716,7 +42747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A555" s="8"/>
       <c r="B555" s="36"/>
       <c r="C555" s="37"/>
@@ -42745,7 +42776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A556" s="8"/>
       <c r="B556" s="36"/>
       <c r="C556" s="37"/>
@@ -42774,7 +42805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A557" s="8" t="s">
         <v>7</v>
       </c>
@@ -42864,7 +42895,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="558" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A558" s="8"/>
       <c r="B558" s="36"/>
       <c r="C558" s="37"/>
@@ -42894,7 +42925,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="559" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A559" s="8" t="s">
         <v>7</v>
       </c>
@@ -42986,7 +43017,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="560" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A560" s="8"/>
       <c r="B560" s="36"/>
       <c r="C560" s="37"/>
@@ -43016,7 +43047,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="561" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A561" s="8"/>
       <c r="B561" s="36"/>
       <c r="C561" s="37"/>
@@ -43046,7 +43077,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="562" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A562" s="8" t="s">
         <v>7</v>
       </c>
@@ -43136,7 +43167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="563" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A563" s="8"/>
       <c r="B563" s="36"/>
       <c r="C563" s="37"/>
@@ -43166,7 +43197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A564" s="8"/>
       <c r="B564" s="36"/>
       <c r="C564" s="37"/>
@@ -43196,7 +43227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A565" s="8" t="s">
         <v>7</v>
       </c>
@@ -43295,7 +43326,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="566" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="8"/>
       <c r="B566" s="36"/>
       <c r="C566" s="37"/>
@@ -43335,7 +43366,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="567" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="8" t="s">
         <v>7</v>
       </c>
@@ -43437,7 +43468,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="568" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="8"/>
       <c r="B568" s="36"/>
       <c r="C568" s="37"/>
@@ -43480,7 +43511,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="569" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="8" t="s">
         <v>7</v>
       </c>
@@ -43674,7 +43705,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="570" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="8" t="s">
         <v>7</v>
       </c>
@@ -43770,7 +43801,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="571" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="8" t="s">
         <v>7</v>
       </c>
@@ -43866,7 +43897,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="572" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="8"/>
       <c r="B572" s="36"/>
       <c r="C572" s="37"/>
@@ -43903,7 +43934,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="573" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A573" s="8" t="s">
         <v>7</v>
       </c>
@@ -43996,7 +44027,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="574" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A574" s="8"/>
       <c r="B574" s="36"/>
       <c r="C574" s="37"/>
@@ -44029,7 +44060,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="575" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A575" s="8" t="s">
         <v>7</v>
       </c>
@@ -44119,7 +44150,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="576" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A576" s="8"/>
       <c r="B576" s="36"/>
       <c r="C576" s="37"/>
@@ -44149,7 +44180,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="577" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A577" s="8"/>
       <c r="B577" s="36"/>
       <c r="C577" s="37"/>
@@ -44179,7 +44210,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="578" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A578" s="8"/>
       <c r="B578" s="36"/>
       <c r="C578" s="37"/>
@@ -44209,7 +44240,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="579" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A579" s="8" t="s">
         <v>7</v>
       </c>
@@ -44299,7 +44330,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="580" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A580" s="8"/>
       <c r="B580" s="36"/>
       <c r="C580" s="37"/>
@@ -44329,7 +44360,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="581" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A581" s="8"/>
       <c r="B581" s="36"/>
       <c r="C581" s="37"/>
@@ -44359,7 +44390,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="582" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="8" t="s">
         <v>7</v>
       </c>
@@ -44452,7 +44483,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="583" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="8"/>
       <c r="B583" s="36"/>
       <c r="C583" s="37"/>
@@ -44485,7 +44516,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="584" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="8"/>
       <c r="B584" s="36"/>
       <c r="C584" s="37"/>
@@ -44518,7 +44549,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="585" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="8" t="s">
         <v>7</v>
       </c>
@@ -44608,7 +44639,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="586" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="8"/>
       <c r="B586" s="36"/>
       <c r="C586" s="37"/>
@@ -44637,7 +44668,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="587" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="8" t="s">
         <v>7</v>
       </c>
@@ -44831,7 +44862,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="588" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A588" s="8" t="s">
         <v>7</v>
       </c>
@@ -44923,7 +44954,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="589" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A589" s="8"/>
       <c r="B589" s="36"/>
       <c r="C589" s="37"/>
@@ -44954,7 +44985,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="590" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A590" s="8" t="s">
         <v>7</v>
       </c>
@@ -45150,7 +45181,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="591" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A591" s="8" t="s">
         <v>7</v>
       </c>
@@ -45243,7 +45274,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="592" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A592" s="8"/>
       <c r="B592" s="36"/>
       <c r="C592" s="37"/>
@@ -45276,7 +45307,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="593" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A593" s="8" t="s">
         <v>7</v>
       </c>
@@ -45366,7 +45397,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="594" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A594" s="8"/>
       <c r="B594" s="36"/>
       <c r="C594" s="37"/>
@@ -45396,7 +45427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A595" s="8"/>
       <c r="B595" s="36"/>
       <c r="C595" s="37"/>
@@ -45426,7 +45457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A596" s="8" t="s">
         <v>7</v>
       </c>
@@ -45522,7 +45553,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="597" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A597" s="8"/>
       <c r="B597" s="36"/>
       <c r="C597" s="37"/>
@@ -45559,7 +45590,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="598" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A598" s="8" t="s">
         <v>7</v>
       </c>
@@ -45753,7 +45784,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="599" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A599" s="8" t="s">
         <v>7</v>
       </c>
@@ -45843,7 +45874,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="600" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A600" s="8"/>
       <c r="B600" s="36"/>
       <c r="C600" s="37"/>
@@ -45872,7 +45903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A601" s="8"/>
       <c r="B601" s="36"/>
       <c r="C601" s="37"/>
@@ -45901,7 +45932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A602" s="8" t="s">
         <v>7</v>
       </c>
@@ -45991,7 +46022,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="603" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A603" s="8"/>
       <c r="B603" s="36"/>
       <c r="C603" s="37"/>
@@ -46021,7 +46052,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="604" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A604" s="8" t="s">
         <v>7</v>
       </c>
@@ -46111,7 +46142,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="605" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A605" s="8" t="s">
         <v>7</v>
       </c>
@@ -46204,7 +46235,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="606" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A606" s="8"/>
       <c r="B606" s="36"/>
       <c r="C606" s="37"/>
@@ -46238,7 +46269,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="607" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A607" s="8" t="s">
         <v>7</v>
       </c>
@@ -46432,7 +46463,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="608" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A608" s="8" t="s">
         <v>7</v>
       </c>
@@ -46528,7 +46559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="609" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A609" s="8"/>
       <c r="B609" s="36"/>
       <c r="C609" s="37"/>
@@ -46563,7 +46594,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="610" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A610" s="8"/>
       <c r="B610" s="36"/>
       <c r="C610" s="37"/>
@@ -46598,7 +46629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A611" s="8" t="s">
         <v>7</v>
       </c>
@@ -46688,7 +46719,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="612" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A612" s="8"/>
       <c r="B612" s="36"/>
       <c r="C612" s="37"/>
@@ -46718,7 +46749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A613" s="8"/>
       <c r="B613" s="36"/>
       <c r="C613" s="37"/>
@@ -46748,7 +46779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A614" s="8" t="s">
         <v>7</v>
       </c>
@@ -46838,7 +46869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A615" s="8"/>
       <c r="B615" s="36"/>
       <c r="C615" s="37"/>
@@ -46868,7 +46899,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="616" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A616" s="8"/>
       <c r="B616" s="36"/>
       <c r="C616" s="37"/>
@@ -46898,7 +46929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A617" s="8" t="s">
         <v>7</v>
       </c>
@@ -46988,7 +47019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A618" s="8"/>
       <c r="B618" s="36"/>
       <c r="C618" s="37"/>
@@ -47017,7 +47048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A619" s="8" t="s">
         <v>7</v>
       </c>
@@ -47107,7 +47138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="8" t="s">
         <v>7</v>
       </c>
@@ -47209,7 +47240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="8"/>
       <c r="B621" s="36"/>
       <c r="C621" s="37"/>
@@ -47252,7 +47283,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="622" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="8" t="s">
         <v>7</v>
       </c>
@@ -47342,7 +47373,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="623" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="8"/>
       <c r="B623" s="36"/>
       <c r="C623" s="37"/>
@@ -47373,7 +47404,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="624" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="8" t="s">
         <v>7</v>
       </c>
@@ -47567,7 +47598,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="625" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A625" s="8" t="s">
         <v>7</v>
       </c>
@@ -47657,7 +47688,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="626" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A626" s="8"/>
       <c r="B626" s="36"/>
       <c r="C626" s="37"/>
@@ -47687,7 +47718,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="627" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A627" s="8"/>
       <c r="B627" s="36"/>
       <c r="C627" s="37"/>
@@ -47717,7 +47748,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="628" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A628" s="8" t="s">
         <v>7</v>
       </c>
@@ -47807,7 +47838,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="629" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A629" s="8"/>
       <c r="B629" s="36"/>
       <c r="C629" s="37"/>
@@ -47837,7 +47868,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="630" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A630" s="8" t="s">
         <v>7</v>
       </c>
@@ -47927,7 +47958,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="631" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A631" s="8"/>
       <c r="B631" s="36"/>
       <c r="C631" s="37"/>
@@ -47957,7 +47988,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="632" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A632" s="8"/>
       <c r="B632" s="36"/>
       <c r="C632" s="37"/>
@@ -47987,7 +48018,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="633" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A633" s="8" t="s">
         <v>7</v>
       </c>
@@ -48083,7 +48114,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="634" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A634" s="8"/>
       <c r="B634" s="36"/>
       <c r="C634" s="37"/>
@@ -48119,7 +48150,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="635" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="8"/>
       <c r="B635" s="36"/>
       <c r="C635" s="37"/>
@@ -48155,7 +48186,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="636" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="8" t="s">
         <v>7</v>
       </c>
@@ -48254,7 +48285,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="637" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="8"/>
       <c r="B637" s="36"/>
       <c r="C637" s="37"/>
@@ -48294,7 +48325,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="638" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="8" t="s">
         <v>7</v>
       </c>
@@ -48393,7 +48424,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="639" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="8"/>
       <c r="B639" s="36"/>
       <c r="C639" s="37"/>
@@ -48433,7 +48464,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="640" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="8" t="s">
         <v>7</v>
       </c>
@@ -48627,7 +48658,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="641" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="8" t="s">
         <v>7</v>
       </c>
@@ -48729,7 +48760,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="642" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A642" s="8" t="s">
         <v>7</v>
       </c>
@@ -48821,7 +48852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A643" s="8"/>
       <c r="B643" s="36"/>
       <c r="C643" s="37"/>
@@ -48851,7 +48882,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="644" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A644" s="8" t="s">
         <v>7</v>
       </c>
@@ -48943,7 +48974,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="645" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A645" s="8" t="s">
         <v>7</v>
       </c>
@@ -49139,7 +49170,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="646" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A646" s="8" t="s">
         <v>7</v>
       </c>
@@ -49229,7 +49260,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="647" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A647" s="8"/>
       <c r="B647" s="36"/>
       <c r="C647" s="37"/>
@@ -49259,7 +49290,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="648" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A648" s="8"/>
       <c r="B648" s="36"/>
       <c r="C648" s="37"/>
@@ -49289,7 +49320,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="649" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A649" s="8" t="s">
         <v>7</v>
       </c>
@@ -49391,7 +49422,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="650" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A650" s="8"/>
       <c r="B650" s="36"/>
       <c r="C650" s="37"/>
@@ -49433,7 +49464,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="651" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A651" s="8" t="s">
         <v>7</v>
       </c>
@@ -49523,7 +49554,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="652" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A652" s="8"/>
       <c r="B652" s="36"/>
       <c r="C652" s="37"/>
@@ -49554,7 +49585,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="653" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A653" s="8"/>
       <c r="B653" s="36"/>
       <c r="C653" s="37"/>
@@ -49585,7 +49616,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="654" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A654" s="8" t="s">
         <v>7</v>
       </c>
@@ -49687,7 +49718,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="655" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A655" s="8"/>
       <c r="B655" s="36"/>
       <c r="C655" s="37"/>
@@ -49730,7 +49761,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="656" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="8" t="s">
         <v>7</v>
       </c>
@@ -49826,7 +49857,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="657" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="8"/>
       <c r="B657" s="36"/>
       <c r="C657" s="37"/>
@@ -49863,7 +49894,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="658" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="8" t="s">
         <v>7</v>
       </c>
@@ -50057,7 +50088,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="659" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="8" t="s">
         <v>7</v>
       </c>
@@ -50147,7 +50178,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="660" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="8"/>
       <c r="B660" s="36"/>
       <c r="C660" s="37"/>
@@ -50178,7 +50209,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="661" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="8"/>
       <c r="B661" s="36"/>
       <c r="C661" s="37"/>
@@ -50209,7 +50240,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="662" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A662" s="8" t="s">
         <v>7</v>
       </c>
@@ -50302,7 +50333,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="663" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A663" s="8"/>
       <c r="B663" s="36"/>
       <c r="C663" s="37"/>
@@ -50336,7 +50367,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="664" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A664" s="8" t="s">
         <v>7</v>
       </c>
@@ -50426,7 +50457,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="665" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A665" s="8"/>
       <c r="B665" s="36"/>
       <c r="C665" s="37"/>
@@ -50457,7 +50488,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="666" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A666" s="8" t="s">
         <v>7</v>
       </c>
@@ -50651,7 +50682,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="667" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A667" s="8" t="s">
         <v>7</v>
       </c>
@@ -50747,7 +50778,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="668" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A668" s="8"/>
       <c r="B668" s="36"/>
       <c r="C668" s="37"/>
@@ -50783,7 +50814,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="669" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A669" s="8" t="s">
         <v>7</v>
       </c>
@@ -50873,7 +50904,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="670" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A670" s="8"/>
       <c r="B670" s="36"/>
       <c r="C670" s="37"/>
@@ -50903,7 +50934,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="671" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A671" s="8"/>
       <c r="B671" s="36"/>
       <c r="C671" s="37"/>
@@ -50933,7 +50964,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="672" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A672" s="8" t="s">
         <v>7</v>
       </c>
@@ -51026,7 +51057,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="673" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A673" s="8"/>
       <c r="B673" s="36"/>
       <c r="C673" s="37"/>
@@ -51059,7 +51090,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="674" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A674" s="8"/>
       <c r="B674" s="36"/>
       <c r="C674" s="37"/>
@@ -51092,7 +51123,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="675" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A675" s="8" t="s">
         <v>7</v>
       </c>
@@ -51185,7 +51216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="676" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A676" s="8"/>
       <c r="B676" s="36"/>
       <c r="C676" s="37"/>
@@ -51217,7 +51248,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="677" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="8" t="s">
         <v>7</v>
       </c>
@@ -51307,7 +51338,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="678" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="8"/>
       <c r="B678" s="36"/>
       <c r="C678" s="37"/>
@@ -51337,7 +51368,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="679" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="8"/>
       <c r="B679" s="36"/>
       <c r="C679" s="37"/>
@@ -51367,7 +51398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="8" t="s">
         <v>7</v>
       </c>
@@ -51460,7 +51491,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="681" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="8"/>
       <c r="B681" s="36"/>
       <c r="C681" s="37"/>
@@ -51494,7 +51525,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="682" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="8" t="s">
         <v>7</v>
       </c>
@@ -51688,7 +51719,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="683" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A683" s="8" t="s">
         <v>7</v>
       </c>
@@ -51787,7 +51818,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="684" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A684" s="8"/>
       <c r="B684" s="36"/>
       <c r="C684" s="37"/>
@@ -51826,7 +51857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="685" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A685" s="8" t="s">
         <v>7</v>
       </c>
@@ -51916,7 +51947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="686" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A686" s="8"/>
       <c r="B686" s="36"/>
       <c r="C686" s="37"/>
@@ -51947,7 +51978,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="687" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A687" s="8" t="s">
         <v>7</v>
       </c>
@@ -52141,7 +52172,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="688" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A688" s="8" t="s">
         <v>7</v>
       </c>
@@ -52231,7 +52262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A689" s="8"/>
       <c r="B689" s="36"/>
       <c r="C689" s="37"/>
@@ -52261,7 +52292,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="690" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A690" s="8" t="s">
         <v>7</v>
       </c>
@@ -52351,7 +52382,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="691" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A691" s="8"/>
       <c r="B691" s="36"/>
       <c r="C691" s="37"/>
@@ -52381,7 +52412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A692" s="8"/>
       <c r="B692" s="36"/>
       <c r="C692" s="37"/>
@@ -52411,7 +52442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="693" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A693" s="8"/>
       <c r="B693" s="36"/>
       <c r="C693" s="37"/>
@@ -52441,7 +52472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A694" s="8" t="s">
         <v>7</v>
       </c>
@@ -52531,7 +52562,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="695" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A695" s="8"/>
       <c r="B695" s="36"/>
       <c r="C695" s="37"/>
@@ -52561,7 +52592,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="696" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:47" ht="13" x14ac:dyDescent="0.3">
       <c r="A696" s="8"/>
       <c r="B696" s="36"/>
       <c r="C696" s="37"/>
@@ -52591,7 +52622,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="697" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="8"/>
       <c r="B697" s="36"/>
       <c r="C697" s="37"/>
@@ -52621,7 +52652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="698" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="8" t="s">
         <v>7</v>
       </c>
@@ -52723,7 +52754,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="699" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="8" t="s">
         <v>7</v>
       </c>
@@ -52813,7 +52844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="700" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="8"/>
       <c r="B700" s="36"/>
       <c r="C700" s="37"/>
@@ -52844,7 +52875,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="701" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="8" t="s">
         <v>7</v>
       </c>
@@ -52934,7 +52965,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="702" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="8"/>
       <c r="B702" s="36"/>
       <c r="C702" s="37"/>
@@ -52965,7 +52996,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="703" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="8" t="s">
         <v>7</v>
       </c>
@@ -53058,7 +53089,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="704" spans="1:47" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:47" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="8"/>
       <c r="B704" s="36"/>
       <c r="C704" s="37"/>
@@ -53092,7 +53123,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="705" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="8" t="s">
         <v>7</v>
       </c>
@@ -53286,7 +53317,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="706" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A706" s="8" t="s">
         <v>7</v>
       </c>
@@ -53379,7 +53410,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="707" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A707" s="8"/>
       <c r="B707" s="36"/>
       <c r="C707" s="37"/>
@@ -53412,7 +53443,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="708" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A708" s="8"/>
       <c r="B708" s="36"/>
       <c r="C708" s="37"/>
@@ -53445,7 +53476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A709" s="8" t="s">
         <v>7</v>
       </c>
@@ -53538,7 +53569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="710" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A710" s="8" t="s">
         <v>7</v>
       </c>
@@ -53634,7 +53665,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="711" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A711" s="8"/>
       <c r="B711" s="36"/>
       <c r="C711" s="37"/>
@@ -53671,7 +53702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="712" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A712" s="8" t="s">
         <v>7</v>
       </c>
@@ -53865,7 +53896,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="713" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A713" s="8" t="s">
         <v>7</v>
       </c>
@@ -53960,7 +53991,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="714" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A714" s="8"/>
       <c r="B714" s="36"/>
       <c r="C714" s="37"/>
@@ -53993,7 +54024,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="715" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A715" s="8" t="s">
         <v>7</v>
       </c>
@@ -54085,7 +54116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="716" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A716" s="8"/>
       <c r="B716" s="36"/>
       <c r="C716" s="37"/>
@@ -54115,7 +54146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="717" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A717" s="8"/>
       <c r="B717" s="36"/>
       <c r="C717" s="37"/>
@@ -54145,7 +54176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A718" s="8" t="s">
         <v>7</v>
       </c>
@@ -54240,7 +54271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="719" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A719" s="8"/>
       <c r="B719" s="36"/>
       <c r="C719" s="37"/>
@@ -54273,7 +54304,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="720" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A720" s="8" t="s">
         <v>7</v>
       </c>
@@ -54368,7 +54399,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="721" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A721" s="8" t="s">
         <v>7</v>
       </c>
@@ -54564,7 +54595,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="722" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A722" s="8" t="s">
         <v>7</v>
       </c>
@@ -54657,7 +54688,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="723" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A723" s="8"/>
       <c r="B723" s="36"/>
       <c r="C723" s="37"/>
@@ -54690,7 +54721,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="724" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A724" s="8" t="s">
         <v>7</v>
       </c>
@@ -54780,7 +54811,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="725" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A725" s="8"/>
       <c r="B725" s="36"/>
       <c r="C725" s="37"/>
@@ -54809,7 +54840,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="726" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A726" s="8" t="s">
         <v>7</v>
       </c>
@@ -54902,7 +54933,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="727" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A727" s="8"/>
       <c r="B727" s="36"/>
       <c r="C727" s="37"/>
@@ -54936,7 +54967,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="728" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A728" s="8" t="s">
         <v>7</v>
       </c>
@@ -55130,7 +55161,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="729" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A729" s="8" t="s">
         <v>7</v>
       </c>
@@ -55228,7 +55259,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="730" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A730" s="8"/>
       <c r="B730" s="36"/>
       <c r="C730" s="37"/>
@@ -55264,7 +55295,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="731" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A731" s="8" t="s">
         <v>7</v>
       </c>
@@ -55356,7 +55387,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="732" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A732" s="8"/>
       <c r="B732" s="36"/>
       <c r="C732" s="37"/>
@@ -55386,7 +55417,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="733" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A733" s="8"/>
       <c r="B733" s="36"/>
       <c r="C733" s="37"/>
@@ -55416,7 +55447,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="734" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A734" s="8"/>
       <c r="B734" s="36"/>
       <c r="C734" s="37"/>
@@ -55446,7 +55477,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="735" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A735" s="8" t="s">
         <v>7</v>
       </c>
@@ -55538,7 +55569,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A736" s="8"/>
       <c r="B736" s="36"/>
       <c r="C736" s="37"/>
@@ -55568,7 +55599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A737" s="8"/>
       <c r="B737" s="36"/>
       <c r="C737" s="37"/>
@@ -55598,7 +55629,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="738" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="8" t="s">
         <v>7</v>
       </c>
@@ -55693,7 +55724,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="8"/>
       <c r="B739" s="36"/>
       <c r="C739" s="37"/>
@@ -55726,7 +55757,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="740" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="8"/>
       <c r="B740" s="36"/>
       <c r="C740" s="37"/>
@@ -55759,7 +55790,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="741" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="8" t="s">
         <v>7</v>
       </c>
@@ -55857,7 +55888,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="742" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="8"/>
       <c r="B742" s="36"/>
       <c r="C742" s="37"/>
@@ -55893,7 +55924,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="743" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="8"/>
       <c r="B743" s="36"/>
       <c r="C743" s="37"/>
@@ -55929,7 +55960,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="744" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="8" t="s">
         <v>7</v>
       </c>
@@ -56021,7 +56052,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="745" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="8"/>
       <c r="B745" s="36"/>
       <c r="C745" s="37"/>
@@ -56052,7 +56083,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="746" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="8"/>
       <c r="B746" s="36"/>
       <c r="C746" s="37"/>
@@ -56083,7 +56114,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="747" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="8" t="s">
         <v>7</v>
       </c>
@@ -56181,7 +56212,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="748" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="8"/>
       <c r="B748" s="36"/>
       <c r="C748" s="37"/>
@@ -56218,7 +56249,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="749" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A749" s="8" t="s">
         <v>7</v>
       </c>
@@ -56310,7 +56341,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="750" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A750" s="8"/>
       <c r="B750" s="36"/>
       <c r="C750" s="37"/>
@@ -56341,7 +56372,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="751" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A751" s="8" t="s">
         <v>7</v>
       </c>
@@ -56537,7 +56568,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="752" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A752" s="8" t="s">
         <v>7</v>
       </c>
@@ -56626,7 +56657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="753" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A753" s="8" t="s">
         <v>7</v>
       </c>
@@ -56716,7 +56747,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="754" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A754" s="8"/>
       <c r="B754" s="36"/>
       <c r="C754" s="37"/>
@@ -56746,7 +56777,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="755" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A755" s="8"/>
       <c r="B755" s="36"/>
       <c r="C755" s="37"/>
@@ -56776,7 +56807,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="756" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A756" s="8" t="s">
         <v>7</v>
       </c>
@@ -56872,7 +56903,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="757" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A757" s="8"/>
       <c r="B757" s="36"/>
       <c r="C757" s="37"/>
@@ -56908,7 +56939,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="758" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A758" s="8"/>
       <c r="B758" s="36"/>
       <c r="C758" s="37"/>
@@ -56944,7 +56975,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="759" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A759" s="8" t="s">
         <v>7</v>
       </c>
@@ -57037,7 +57068,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="760" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A760" s="8"/>
       <c r="B760" s="36"/>
       <c r="C760" s="37"/>
@@ -57070,7 +57101,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="761" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A761" s="8" t="s">
         <v>7</v>
       </c>
@@ -57160,7 +57191,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="762" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A762" s="8"/>
       <c r="B762" s="36"/>
       <c r="C762" s="37"/>
@@ -57190,7 +57221,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="763" spans="1:45" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:45" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="8"/>
       <c r="B763" s="36"/>
       <c r="C763" s="37"/>
@@ -57220,7 +57251,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="764" spans="1:45" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:45" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="8" t="s">
         <v>7</v>
       </c>
@@ -57310,7 +57341,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="765" spans="1:45" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:45" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="8"/>
       <c r="B765" s="36"/>
       <c r="C765" s="37"/>
@@ -57340,7 +57371,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="766" spans="1:45" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:45" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="8"/>
       <c r="B766" s="36"/>
       <c r="C766" s="37"/>
@@ -57370,7 +57401,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="767" spans="1:45" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:45" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="8" t="s">
         <v>7</v>
       </c>
@@ -57460,7 +57491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="768" spans="1:45" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:45" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="8"/>
       <c r="B768" s="36"/>
       <c r="C768" s="37"/>
@@ -57490,7 +57521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="769" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="8" t="s">
         <v>7</v>
       </c>
@@ -57592,7 +57623,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="770" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="8"/>
       <c r="B770" s="36"/>
       <c r="C770" s="37"/>
@@ -57635,7 +57666,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="771" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="8" t="s">
         <v>7</v>
       </c>
@@ -57737,7 +57768,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="772" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="8"/>
       <c r="B772" s="36"/>
       <c r="C772" s="37"/>
@@ -57780,7 +57811,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="773" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="8" t="s">
         <v>7</v>
       </c>
@@ -57974,7 +58005,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="774" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A774" s="8" t="s">
         <v>7</v>
       </c>
@@ -58072,7 +58103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="775" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A775" s="8"/>
       <c r="B775" s="36"/>
       <c r="C775" s="37"/>
@@ -58108,7 +58139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="776" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A776" s="8" t="s">
         <v>7</v>
       </c>
@@ -58203,7 +58234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="777" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A777" s="8"/>
       <c r="B777" s="36"/>
       <c r="C777" s="37"/>
@@ -58236,7 +58267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="778" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A778" s="8"/>
       <c r="B778" s="36"/>
       <c r="C778" s="37"/>
@@ -58269,7 +58300,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="779" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A779" s="8"/>
       <c r="B779" s="36"/>
       <c r="C779" s="37"/>
@@ -58302,7 +58333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A780" s="8" t="s">
         <v>7</v>
       </c>
@@ -58397,7 +58428,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="781" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A781" s="8"/>
       <c r="B781" s="36"/>
       <c r="C781" s="37"/>
@@ -58430,7 +58461,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="782" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A782" s="8"/>
       <c r="B782" s="36"/>
       <c r="C782" s="37"/>
@@ -58463,7 +58494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A783" s="8" t="s">
         <v>7</v>
       </c>
@@ -58561,7 +58592,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="784" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="8" t="s">
         <v>7</v>
       </c>
@@ -58659,7 +58690,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="785" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="8"/>
       <c r="B785" s="36"/>
       <c r="C785" s="37"/>
@@ -58696,7 +58727,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="786" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="8" t="s">
         <v>7</v>
       </c>
@@ -58892,7 +58923,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="787" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A787" s="8" t="s">
         <v>7</v>
       </c>
@@ -58982,7 +59013,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="788" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A788" s="8"/>
       <c r="B788" s="36"/>
       <c r="C788" s="37"/>
@@ -59012,7 +59043,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="789" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A789" s="8"/>
       <c r="B789" s="36"/>
       <c r="C789" s="37"/>
@@ -59042,7 +59073,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="790" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A790" s="8" t="s">
         <v>7</v>
       </c>
@@ -59138,7 +59169,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="791" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A791" s="8"/>
       <c r="B791" s="36"/>
       <c r="C791" s="37"/>
@@ -59174,7 +59205,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="792" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A792" s="8" t="s">
         <v>7</v>
       </c>
@@ -59264,7 +59295,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="793" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A793" s="8"/>
       <c r="B793" s="36"/>
       <c r="C793" s="37"/>
@@ -59295,7 +59326,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="794" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A794" s="8"/>
       <c r="B794" s="36"/>
       <c r="C794" s="37"/>
@@ -59326,7 +59357,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="795" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A795" s="8" t="s">
         <v>7</v>
       </c>
@@ -59413,7 +59444,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="796" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A796" s="8" t="s">
         <v>7</v>
       </c>
@@ -59503,7 +59534,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="797" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="8"/>
       <c r="B797" s="36"/>
       <c r="C797" s="37"/>
@@ -59533,7 +59564,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="798" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="8"/>
       <c r="B798" s="36"/>
       <c r="C798" s="37"/>
@@ -59563,7 +59594,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="799" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="8" t="s">
         <v>7</v>
       </c>
@@ -59665,7 +59696,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="800" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="8"/>
       <c r="B800" s="36"/>
       <c r="C800" s="37"/>
@@ -59708,7 +59739,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="801" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="8" t="s">
         <v>7</v>
       </c>
@@ -59810,7 +59841,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="802" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="8"/>
       <c r="B802" s="36"/>
       <c r="C802" s="37"/>
@@ -59853,7 +59884,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="803" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="8" t="s">
         <v>7</v>
       </c>
@@ -60047,7 +60078,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="804" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="8" t="s">
         <v>7</v>
       </c>
@@ -60137,7 +60168,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="805" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="8"/>
       <c r="B805" s="36"/>
       <c r="C805" s="37"/>
@@ -60168,7 +60199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="806" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="8"/>
       <c r="B806" s="36"/>
       <c r="C806" s="37"/>
@@ -60199,7 +60230,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="807" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A807" s="8" t="s">
         <v>7</v>
       </c>
@@ -60289,7 +60320,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="808" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A808" s="8"/>
       <c r="B808" s="36"/>
       <c r="C808" s="37"/>
@@ -60319,7 +60350,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="809" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A809" s="8"/>
       <c r="B809" s="36"/>
       <c r="C809" s="37"/>
@@ -60349,7 +60380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A810" s="8" t="s">
         <v>7</v>
       </c>
@@ -60448,7 +60479,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="811" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A811" s="8" t="s">
         <v>7</v>
       </c>
@@ -60541,7 +60572,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="812" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A812" s="8"/>
       <c r="B812" s="36"/>
       <c r="C812" s="37"/>
@@ -60575,7 +60606,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="813" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A813" s="8" t="s">
         <v>7</v>
       </c>
@@ -60674,7 +60705,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="814" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A814" s="8"/>
       <c r="B814" s="36"/>
       <c r="C814" s="37"/>
@@ -60714,7 +60745,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="815" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A815" s="8" t="s">
         <v>7</v>
       </c>
@@ -60810,7 +60841,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="816" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A816" s="8"/>
       <c r="B816" s="36"/>
       <c r="C816" s="37"/>
@@ -60847,7 +60878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="817" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="8" t="s">
         <v>7</v>
       </c>
@@ -60943,7 +60974,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="818" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="8"/>
       <c r="B818" s="36"/>
       <c r="C818" s="37"/>
@@ -60980,7 +61011,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="819" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="8" t="s">
         <v>7</v>
       </c>
@@ -61174,7 +61205,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="820" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A820" s="8" t="s">
         <v>7</v>
       </c>
@@ -61276,7 +61307,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="821" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A821" s="8"/>
       <c r="B821" s="36"/>
       <c r="C821" s="37"/>
@@ -61318,7 +61349,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="822" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A822" s="8"/>
       <c r="B822" s="36"/>
       <c r="C822" s="37"/>
@@ -61360,7 +61391,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="823" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A823" s="8" t="s">
         <v>7</v>
       </c>
@@ -61453,7 +61484,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="824" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A824" s="8"/>
       <c r="B824" s="36"/>
       <c r="C824" s="37"/>
@@ -61486,7 +61517,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="825" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A825" s="8" t="s">
         <v>7</v>
       </c>
@@ -61576,7 +61607,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="826" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A826" s="8"/>
       <c r="B826" s="36"/>
       <c r="C826" s="37"/>
@@ -61607,7 +61638,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="827" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A827" s="8"/>
       <c r="B827" s="36"/>
       <c r="C827" s="37"/>
@@ -61638,7 +61669,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="828" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A828" s="8" t="s">
         <v>7</v>
       </c>
@@ -61740,7 +61771,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="829" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A829" s="8"/>
       <c r="B829" s="36"/>
       <c r="C829" s="37"/>
@@ -61782,7 +61813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="830" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="8"/>
       <c r="B830" s="36"/>
       <c r="C830" s="37"/>
@@ -61824,7 +61855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="8" t="s">
         <v>7</v>
       </c>
@@ -61914,7 +61945,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="832" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="8"/>
       <c r="B832" s="36"/>
       <c r="C832" s="37"/>
@@ -61943,7 +61974,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="833" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="8"/>
       <c r="B833" s="36"/>
       <c r="C833" s="37"/>
@@ -61972,7 +62003,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="834" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="8" t="s">
         <v>7</v>
       </c>
@@ -62062,7 +62093,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="835" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="8"/>
       <c r="B835" s="36"/>
       <c r="C835" s="37"/>
@@ -62092,7 +62123,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="836" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="8" t="s">
         <v>7</v>
       </c>
@@ -62185,7 +62216,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="837" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="8"/>
       <c r="B837" s="36"/>
       <c r="C837" s="37"/>
@@ -62219,7 +62250,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="838" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="8" t="s">
         <v>7</v>
       </c>
@@ -62413,7 +62444,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="839" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A839" s="8" t="s">
         <v>7</v>
       </c>
@@ -62505,7 +62536,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="840" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A840" s="8"/>
       <c r="B840" s="36"/>
       <c r="C840" s="37"/>
@@ -62535,7 +62566,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="841" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A841" s="8"/>
       <c r="B841" s="36"/>
       <c r="C841" s="37"/>
@@ -62565,7 +62596,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="842" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A842" s="8"/>
       <c r="B842" s="36"/>
       <c r="C842" s="37"/>
@@ -62595,7 +62626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A843" s="8" t="s">
         <v>7</v>
       </c>
@@ -62690,7 +62721,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="844" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A844" s="8"/>
       <c r="B844" s="36"/>
       <c r="C844" s="37"/>
@@ -62724,7 +62755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A845" s="8"/>
       <c r="B845" s="36"/>
       <c r="C845" s="37"/>
@@ -62758,7 +62789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="846" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A846" s="8" t="s">
         <v>7</v>
       </c>
@@ -62853,7 +62884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A847" s="8" t="s">
         <v>7</v>
       </c>
@@ -62945,7 +62976,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="848" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A848" s="8"/>
       <c r="B848" s="36"/>
       <c r="C848" s="37"/>
@@ -62976,7 +63007,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="849" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="8" t="s">
         <v>7</v>
       </c>
@@ -63068,7 +63099,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="850" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="8"/>
       <c r="B850" s="36"/>
       <c r="C850" s="37"/>
@@ -63099,7 +63130,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="851" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="8" t="s">
         <v>7</v>
       </c>
@@ -63191,7 +63222,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="852" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="8"/>
       <c r="B852" s="36"/>
       <c r="C852" s="37"/>
@@ -63222,7 +63253,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="853" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="8" t="s">
         <v>7</v>
       </c>
@@ -63317,7 +63348,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="854" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="8"/>
       <c r="B854" s="36"/>
       <c r="C854" s="37"/>
@@ -63351,7 +63382,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="855" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="8" t="s">
         <v>7</v>
       </c>
@@ -63547,7 +63578,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="856" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="8" t="s">
         <v>7</v>
       </c>
@@ -63639,7 +63670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="857" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="8"/>
       <c r="B857" s="36"/>
       <c r="C857" s="37"/>
@@ -63670,7 +63701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="858" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="8"/>
       <c r="B858" s="36"/>
       <c r="C858" s="37"/>
@@ -63701,7 +63732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="859" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A859" s="8" t="s">
         <v>7</v>
       </c>
@@ -63793,7 +63824,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="860" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A860" s="8"/>
       <c r="B860" s="36"/>
       <c r="C860" s="37"/>
@@ -63823,7 +63854,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="861" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A861" s="8"/>
       <c r="B861" s="36"/>
       <c r="C861" s="37"/>
@@ -63853,7 +63884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A862" s="8" t="s">
         <v>7</v>
       </c>
@@ -63945,7 +63976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="863" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A863" s="8"/>
       <c r="B863" s="36"/>
       <c r="C863" s="37"/>
@@ -63975,7 +64006,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="864" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A864" s="8" t="s">
         <v>7</v>
       </c>
@@ -64067,7 +64098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="865" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A865" s="8"/>
       <c r="B865" s="36"/>
       <c r="C865" s="37"/>
@@ -64097,7 +64128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="866" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A866" s="8" t="s">
         <v>7</v>
       </c>
@@ -64293,7 +64324,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="867" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A867" s="8" t="s">
         <v>7</v>
       </c>
@@ -64385,7 +64416,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="868" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A868" s="8"/>
       <c r="B868" s="36"/>
       <c r="C868" s="37"/>
@@ -64415,7 +64446,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="869" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A869" s="8" t="s">
         <v>7</v>
       </c>
@@ -64510,7 +64541,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="870" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A870" s="8"/>
       <c r="B870" s="36"/>
       <c r="C870" s="37"/>
@@ -64543,7 +64574,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="871" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A871" s="8" t="s">
         <v>7</v>
       </c>
@@ -64641,7 +64672,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="872" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A872" s="8" t="s">
         <v>7</v>
       </c>
@@ -64837,7 +64868,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="873" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A873" s="8" t="s">
         <v>7</v>
       </c>
@@ -64935,7 +64966,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="874" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A874" s="8"/>
       <c r="B874" s="36"/>
       <c r="C874" s="37"/>
@@ -64971,7 +65002,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="875" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A875" s="8" t="s">
         <v>7</v>
       </c>
@@ -65063,7 +65094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="876" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A876" s="8"/>
       <c r="B876" s="36"/>
       <c r="C876" s="37"/>
@@ -65093,7 +65124,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="877" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A877" s="8"/>
       <c r="B877" s="36"/>
       <c r="C877" s="37"/>
@@ -65123,7 +65154,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="878" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A878" s="8" t="s">
         <v>7</v>
       </c>
@@ -65224,7 +65255,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="879" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A879" s="8"/>
       <c r="B879" s="36"/>
       <c r="C879" s="37"/>
@@ -65263,7 +65294,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="880" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A880" s="8"/>
       <c r="B880" s="36"/>
       <c r="C880" s="37"/>
@@ -65302,7 +65333,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="881" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A881" s="8" t="s">
         <v>7</v>
       </c>
@@ -65394,7 +65425,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="882" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:67" ht="13" x14ac:dyDescent="0.3">
       <c r="A882" s="8"/>
       <c r="B882" s="36"/>
       <c r="C882" s="37"/>
@@ -65424,7 +65455,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="883" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="8"/>
       <c r="B883" s="36"/>
       <c r="C883" s="37"/>
@@ -65454,7 +65485,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="884" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="8" t="s">
         <v>7</v>
       </c>
@@ -65549,7 +65580,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="885" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="8"/>
       <c r="B885" s="36"/>
       <c r="C885" s="37"/>
@@ -65582,7 +65613,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="886" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="8" t="s">
         <v>7</v>
       </c>
@@ -65680,7 +65711,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="887" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="8"/>
       <c r="B887" s="36"/>
       <c r="C887" s="37"/>
@@ -65717,7 +65748,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="888" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:67" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="8" t="s">
         <v>7</v>
       </c>
